--- a/data/EWMI G-PAC Subgrant Database - March 24 March, 2014.xlsx
+++ b/data/EWMI G-PAC Subgrant Database - March 24 March, 2014.xlsx
@@ -11,17 +11,17 @@
     <sheet name="All grants" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'All grants'!$A$2:$T$190</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Text11" vbProcedure="false">'All grants'!$B$171</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Text13" vbProcedure="false">'All grants'!$C$171</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'All grants'!$A$2:$T$190</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'All grants'!$A$2:$T$190</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="559">
   <si>
     <t>Grant regions (Please type '1' in each region in which grantee works)</t>
   </si>
@@ -109,7 +109,7 @@
     <t>Promote Protection of Environment</t>
   </si>
   <si>
-    <t>Advocate for the relocation of the existing landfill in Kutaisi and a complete re-cultivation of the soil in the area. </t>
+    <t>Advocate for the relocation of the existing landfill in Kutaisi and a complete re-cultivation of the soil in the area.</t>
   </si>
   <si>
     <t>Society “Biliki”</t>
@@ -121,7 +121,7 @@
     <t>IDPs</t>
   </si>
   <si>
-    <t>Increase public education among IDP youth and help them integrate into local society. </t>
+    <t>Increase public education among IDP youth and help them integrate into local society.</t>
   </si>
   <si>
     <t>Association  Zekari</t>
@@ -133,7 +133,7 @@
     <t>Good Governance</t>
   </si>
   <si>
-    <t>Establish ongoing communication between the regional capital and high mountainous villages. </t>
+    <t>Establish ongoing communication between the regional capital and high mountainous villages.</t>
   </si>
   <si>
     <t>Club of Gori Invalids</t>
@@ -154,7 +154,7 @@
     <t>Advocacy for the Interests of People Living Below the Poverty Line in the  Kakheti Region</t>
   </si>
   <si>
-    <t>Social Assistance </t>
+    <t>Social Assistance</t>
   </si>
   <si>
     <t>Help people living below the poverty line benefit from the “State Program to Eradicate Poverty” by providing professional/legal support and information.</t>
@@ -172,13 +172,13 @@
     <t>Young Economists Association of Georgia  - Imereti Representation</t>
   </si>
   <si>
-    <t>Monitor Highway Construction of  Zestaponi-Samtredia </t>
+    <t>Monitor Highway Construction of  Zestaponi-Samtredia</t>
   </si>
   <si>
     <t>Property Rights</t>
   </si>
   <si>
-    <t>Ensure communities are financially compensated for use of their land for road construction.  </t>
+    <t>Ensure communities are financially compensated for use of their land for road construction.</t>
   </si>
   <si>
     <t>Ozurgeti Young Scientists Club</t>
@@ -196,10 +196,10 @@
     <t>The Guram Tikanadze Svaneti Youth Center</t>
   </si>
   <si>
-    <t>Monitoring of Zugdidi-Mestia Road Construction </t>
-  </si>
-  <si>
-    <t>Ensure rights of the local community are protected by monitoring the construction of the Zugdidi-Mestia highway.  </t>
+    <t>Monitoring of Zugdidi-Mestia Road Construction</t>
+  </si>
+  <si>
+    <t>Ensure rights of the local community are protected by monitoring the construction of the Zugdidi-Mestia highway.</t>
   </si>
   <si>
     <t>Young Lawyers Association of Georgia – Kutaisi Branch</t>
@@ -208,7 +208,7 @@
     <t>Active Citizenship, In Governance</t>
   </si>
   <si>
-    <t>Inform and promote citizen participation in the Baghdati and Tskaltubo municipalities’ budget process. </t>
+    <t>Inform and promote citizen participation in the Baghdati and Tskaltubo municipalities’ budget process.</t>
   </si>
   <si>
     <t>Union for  Democratic Development of Georgia</t>
@@ -220,7 +220,7 @@
     <t>Local Governance</t>
   </si>
   <si>
-    <t>Increase public participation in local decision-making. </t>
+    <t>Increase public participation in local decision-making.</t>
   </si>
   <si>
     <t>Center forIntegration of DisabledPeople of Kakheti Region</t>
@@ -238,19 +238,19 @@
     <t>Advocacy for Environmental Issues in Chiatura</t>
   </si>
   <si>
-    <t>Increase environmental awareness and public participation in local decision-making processes. </t>
+    <t>Increase environmental awareness and public participation in local decision-making processes.</t>
   </si>
   <si>
     <t>New Initiative in Kvemo Kartli</t>
   </si>
   <si>
-    <t>Public Participation in the Municipal Budgeting Process  </t>
-  </si>
-  <si>
-    <t>Increase public oversight and participation in the budgeting process in the Gardabani region.  </t>
-  </si>
-  <si>
-    <t>Liberal Academy of Tbilisi </t>
+    <t>Public Participation in the Municipal Budgeting Process</t>
+  </si>
+  <si>
+    <t>Increase public oversight and participation in the budgeting process in the Gardabani region.</t>
+  </si>
+  <si>
+    <t>Liberal Academy of Tbilisi</t>
   </si>
   <si>
     <t>Transition in Georgia: Major Implications</t>
@@ -274,7 +274,7 @@
     <t>Think Tank Support Grant</t>
   </si>
   <si>
-    <t>Assist the National Security Council of Georgia in identifying and assessing major economic threats and challenges. </t>
+    <t>Assist the National Security Council of Georgia in identifying and assessing major economic threats and challenges.</t>
   </si>
   <si>
     <t>International Institute for Education Policy, Planning and Management</t>
@@ -286,7 +286,7 @@
     <t>Education Policy</t>
   </si>
   <si>
-    <t>Assess the prevalence and impact of private tutoring in Georgia and recommend education policy reforms to mitigate its negative impacts. </t>
+    <t>Assess the prevalence and impact of private tutoring in Georgia and recommend education policy reforms to mitigate its negative impacts.</t>
   </si>
   <si>
     <t>Insurance Association of Georgia</t>
@@ -319,7 +319,7 @@
     <t>Identify binding constraints to economic growth in Georgia and develop recommendations for targeted policy interventions.</t>
   </si>
   <si>
-    <t>Georgian Association of Child Neurologists and Neurosurgeons </t>
+    <t>Georgian Association of Child Neurologists and Neurosurgeons</t>
   </si>
   <si>
     <t>Coalition for Childhood Disability</t>
@@ -331,7 +331,7 @@
     <t>Social Policy</t>
   </si>
   <si>
-    <t>Advocate for the rights of children with disabilities to enhance healthcare, education, and disability-related services. </t>
+    <t>Advocate for the rights of children with disabilities to enhance healthcare, education, and disability-related services.</t>
   </si>
   <si>
     <t>Civic Development Institute</t>
@@ -355,7 +355,7 @@
     <t>Advocate for the protection of recreation zones in Tbilisi.</t>
   </si>
   <si>
-    <t>Green Alternative </t>
+    <t>Green Alternative</t>
   </si>
   <si>
     <t>Empowering Local Communities in Imereti and Racha-Lechkhumi</t>
@@ -370,10 +370,10 @@
     <t>Vulnerable Population for Healthcare Insurance Reforms</t>
   </si>
   <si>
-    <t>Increase awareness of state-funded medical insurance among vulnerable populations. </t>
-  </si>
-  <si>
-    <t>Civil Society Development Union “Borjgali” </t>
+    <t>Increase awareness of state-funded medical insurance among vulnerable populations.</t>
+  </si>
+  <si>
+    <t>Civil Society Development Union “Borjgali”</t>
   </si>
   <si>
     <t>Improving Public Policy in the Field of Eco-Migration</t>
@@ -406,7 +406,7 @@
     <t>Georgian Civil Development Association</t>
   </si>
   <si>
-    <t>Advocacy for Socially Vulnerable Populations in The Kakheti Region </t>
+    <t>Advocacy for Socially Vulnerable Populations in The Kakheti Region</t>
   </si>
   <si>
     <t>Identify 30 socially vulnerable people in the Telavi, Lagodekhi, and Gurjaani municipalities and provide advocacy training to them.</t>
@@ -415,7 +415,7 @@
     <t>Step Forward</t>
   </si>
   <si>
-    <t>Advocacy for Children with Hearing Problems </t>
+    <t>Advocacy for Children with Hearing Problems</t>
   </si>
   <si>
     <t>Children's Issues</t>
@@ -442,7 +442,7 @@
     <t>Supplying IDPs in Frezeti with Drinking Water</t>
   </si>
   <si>
-    <t>Advocate for providing drinking water to the new IDP settlement in Frezeti. </t>
+    <t>Advocate for providing drinking water to the new IDP settlement in Frezeti.</t>
   </si>
   <si>
     <t>Association Atinati</t>
@@ -466,7 +466,7 @@
     <t>Networking facilitation in East Georgia</t>
   </si>
   <si>
-    <t>Civil Society Institute </t>
+    <t>Civil Society Institute</t>
   </si>
   <si>
     <t>Improving the Civil Society Enabling Environment in Georgia</t>
@@ -502,9 +502,6 @@
     <t>Public Policy Faculty Retreat</t>
   </si>
   <si>
-    <t>Education </t>
-  </si>
-  <si>
     <t>Discuss best practices in teaching public policy and develop teaching modules for applied policy research.</t>
   </si>
   <si>
@@ -514,7 +511,7 @@
     <t>Summer School in Public Policy Analysis</t>
   </si>
   <si>
-    <t>Develop a summer school course entitled “Public Policy Analysis – Problems and Solutions in the 21st Century.”  </t>
+    <t>Develop a summer school course entitled “Public Policy Analysis – Problems and Solutions in the 21st Century.”</t>
   </si>
   <si>
     <t>Improvement of Teaching/Learning Quality at RSU</t>
@@ -532,7 +529,7 @@
     <t>Developing  Cost-Benefit Analysis Course</t>
   </si>
   <si>
-    <t>Strengthen the public policy and administration graduate curriculum by adding a new course in cost-benefit analysis. </t>
+    <t>Strengthen the public policy and administration graduate curriculum by adding a new course in cost-benefit analysis.</t>
   </si>
   <si>
     <t>Akhaltsikhe State Educational University</t>
@@ -553,7 +550,7 @@
     <t>Establishment of a Master in Public Administration (MPA) program at Ilia State University (ISU).</t>
   </si>
   <si>
-    <t>Akhalkalaki Higher Education Institution </t>
+    <t>Akhalkalaki Higher Education Institution</t>
   </si>
   <si>
     <t>Thinking Critically, Thinking Creatively</t>
@@ -568,7 +565,7 @@
     <t>Decision-Making Policy Technology in Practice for Social Policy Analysis</t>
   </si>
   <si>
-    <t>Develop two courses on decision-making for graduate students in the social sciences.  </t>
+    <t>Develop two courses on decision-making for graduate students in the social sciences.</t>
   </si>
   <si>
     <t>PMC Research Center</t>
@@ -646,10 +643,7 @@
     <t>Advocacy of Socially Vulnerable Population in Mtskheta-Mtianeti</t>
   </si>
   <si>
-    <t>Social Assistance</t>
-  </si>
-  <si>
-    <t>Help people living below the poverty line benefit from the State Program to Eradicate Poverty (SPEP). </t>
+    <t>Help people living below the poverty line benefit from the State Program to Eradicate Poverty (SPEP).</t>
   </si>
   <si>
     <t>Center for Public Monitoring and Research</t>
@@ -667,7 +661,7 @@
     <t>Citizens for Protection of their Rights</t>
   </si>
   <si>
-    <t>Address property rights violations in Poti and Grigoleti. </t>
+    <t>Address property rights violations in Poti and Grigoleti.</t>
   </si>
   <si>
     <t>Stepantsmida</t>
@@ -694,19 +688,19 @@
     <t>Raise awareness among the Kutaisi population about a recently imposed water fee.</t>
   </si>
   <si>
-    <t>Partnership for Social Initiatives – Georgian Center </t>
+    <t>Partnership for Social Initiatives – Georgian Center</t>
   </si>
   <si>
     <t>Impact of the New Health Policy on the Access to Health Services</t>
   </si>
   <si>
-    <t>Assess the quality and outcomes of recent healthcare reforms. </t>
+    <t>Assess the quality and outcomes of recent healthcare reforms.</t>
   </si>
   <si>
     <t>Psychometric and Consulting Association</t>
   </si>
   <si>
-    <t>First Aid for  Epileptic Seizures </t>
+    <t>First Aid for  Epileptic Seizures</t>
   </si>
   <si>
     <t>Increase the knowledge and skills of school teachers in treating students during epileptic and other paroxysmal attacks.</t>
@@ -715,7 +709,7 @@
     <t>Advancing the Teaching of Party Politics in Georgia</t>
   </si>
   <si>
-    <t>Develop a graduate course in party politics and party systems. </t>
+    <t>Develop a graduate course in party politics and party systems.</t>
   </si>
   <si>
     <t>Guram Tikanadze Svaneti Youth Center</t>
@@ -727,13 +721,13 @@
     <t>Advocate for improved forest resource management by local government and communities to reduce negative effects on the environment.</t>
   </si>
   <si>
-    <t>Civil Society Development Union “Borjgalo” </t>
+    <t>Civil Society Development Union “Borjgalo”</t>
   </si>
   <si>
     <t>Advocacy for Eco-migrants' Interests</t>
   </si>
   <si>
-    <t>Improve the legal and policy environment for eco-migrants in Georgia. </t>
+    <t>Improve the legal and policy environment for eco-migrants in Georgia.</t>
   </si>
   <si>
     <t>Association Union of Chiaturians</t>
@@ -754,13 +748,13 @@
     <t>Election</t>
   </si>
   <si>
-    <t>Monitor and post results of the 2012 Parliamentary elections online. </t>
+    <t>Monitor and post results of the 2012 Parliamentary elections online.</t>
   </si>
   <si>
     <t>Coalition for Independent Living</t>
   </si>
   <si>
-    <t>Strengthening Democratic Processes </t>
+    <t>Strengthening Democratic Processes</t>
   </si>
   <si>
     <t>Increase the involvement of people with disabilities in the electoral process.</t>
@@ -781,7 +775,7 @@
     <t>Conducting an Innovative SMS Survey</t>
   </si>
   <si>
-    <t>Pilot an innovative SMS technology enabling citizens to monitor the pre-election environments throughout Georgia. </t>
+    <t>Pilot an innovative SMS technology enabling citizens to monitor the pre-election environments throughout Georgia.</t>
   </si>
   <si>
     <r>
@@ -817,15 +811,9 @@
     <t>National Competitiveness report</t>
   </si>
   <si>
-    <t>Economic Development </t>
-  </si>
-  <si>
     <t>Create a National Competitiveness Report (NCR) for Georgia. Promote Georgia’s attractiveness as an investment destination and create the professional and institutional capacities in Georgia to monitor and analyze competitiveness policies.</t>
   </si>
   <si>
-    <t>Economic Policy Research Center </t>
-  </si>
-  <si>
     <t>The Price of the State</t>
   </si>
   <si>
@@ -859,7 +847,7 @@
     <t>Advocacy for Equal Rights of Children with Hearing Problems</t>
   </si>
   <si>
-    <t>Develop an action plan and advocate for the provision of quality healthcare and education to children with hearing problems. </t>
+    <t>Develop an action plan and advocate for the provision of quality healthcare and education to children with hearing problems.</t>
   </si>
   <si>
     <t>Civil  Development Associationof Georgia</t>
@@ -868,7 +856,7 @@
     <t>Protect the Rights of Socially Unprotected Population in Kakheti Region</t>
   </si>
   <si>
-    <t>Protect the rights of people living below the poverty line in Kakheti and advocate for effective and fair social assistance policy at the local level. </t>
+    <t>Protect the rights of people living below the poverty line in Kakheti and advocate for effective and fair social assistance policy at the local level.</t>
   </si>
   <si>
     <t>Advocacy for Development of Cities Left Without Self-Governance</t>
@@ -880,7 +868,7 @@
     <t>Rehabilitation and Development Charity Center "Tanaziari"</t>
   </si>
   <si>
-    <t>Ensuring Accessibility of Healthcare Services to IDPs and Protecting their Rights </t>
+    <t>Ensuring Accessibility of Healthcare Services to IDPs and Protecting their Rights</t>
   </si>
   <si>
     <t>Increase the accessibility and improve the provision of medical services to IDPs in Poti.</t>
@@ -892,9 +880,6 @@
     <t>Increasing Engagement of Population of Telavi in Local Decision-Making Process</t>
   </si>
   <si>
-    <t>Public Finance </t>
-  </si>
-  <si>
     <t>Increase the participation of Telavi municipality citizens in local budget planning and decision-making process.</t>
   </si>
   <si>
@@ -907,15 +892,12 @@
     <t>Cultural Heritage</t>
   </si>
   <si>
-    <t>Advocate for the protection of cultural landmarks in Tbilisi and raise awareness about threats to these landmarks. </t>
+    <t>Advocate for the protection of cultural landmarks in Tbilisi and raise awareness about threats to these landmarks.</t>
   </si>
   <si>
     <t>Georgian Teachers for Child Friendly School</t>
   </si>
   <si>
-    <t>Georgian Association of Child Neurologists and Neurosurgeons</t>
-  </si>
-  <si>
     <t>Welfare Foundation</t>
   </si>
   <si>
@@ -988,7 +970,7 @@
     <t>My Choice - My Future</t>
   </si>
   <si>
-    <t>Encourage Russian-speaking ethnic minorities in Tbilisi to actively participate in elections. </t>
+    <t>Encourage Russian-speaking ethnic minorities in Tbilisi to actively participate in elections.</t>
   </si>
   <si>
     <t>International Relations and the Contemporary Challenges of International Law</t>
@@ -1009,7 +991,7 @@
     <t>Improve the Georgian legal environment to better support the financial sustainability of CSOs. CSI analyzed tax regulations affecting CSOs in Georgia, identified key problematic regulations, developed solutions, provided expert consultations to other CSOs and businesses on taxation issues, published a guidebook on taxation for CSOs, and assisted G-PAC in identifying priorities for upcoming years in this area.</t>
   </si>
   <si>
-    <t>Build on and advance the Master’s Program in Public Administration at Ilia State University and make it fully operational. </t>
+    <t>Build on and advance the Master’s Program in Public Administration at Ilia State University and make it fully operational.</t>
   </si>
   <si>
     <t>Society of Democrat Women of Marneuli</t>
@@ -1048,7 +1030,7 @@
     <t>Supporting the Development of Traditional Fishing in Georgia</t>
   </si>
   <si>
-    <t>Developing traditional coastal fishing and protecting the rights of coastal fishermen’s unions. </t>
+    <t>Developing traditional coastal fishing and protecting the rights of coastal fishermen’s unions.</t>
   </si>
   <si>
     <t>People’s Harmonious Development Society</t>
@@ -1057,7 +1039,7 @@
     <t>Advocacy Campaign for Development of Reintegration Policy for Returnees</t>
   </si>
   <si>
-    <t>Reintegration policy </t>
+    <t>Reintegration policy</t>
   </si>
   <si>
     <t>Protect the rights of returnees in Georgia and support the development of reintegration policy for returnees in the regions of Georgia.</t>
@@ -1084,7 +1066,7 @@
     <t>Advocacy of Kazbegi Population During the Implementation of Ongoing and Planned HPP Projects</t>
   </si>
   <si>
-    <t>Inform communities affected by large hydro-power plant construction about the social and environmental obligations of the construction companies. </t>
+    <t>Inform communities affected by large hydro-power plant construction about the social and environmental obligations of the construction companies.</t>
   </si>
   <si>
     <t>Association of Civil Society Development of Georgia</t>
@@ -1093,13 +1075,13 @@
     <t>Active Citizens - Accountable and Transparent Governance</t>
   </si>
   <si>
-    <t>Initiate dialogue between the government of Tetritskaro municipality and local residents to increase public engagement in decision-making processes. </t>
+    <t>Initiate dialogue between the government of Tetritskaro municipality and local residents to increase public engagement in decision-making processes.</t>
   </si>
   <si>
     <t>Preschool Education - Our Right</t>
   </si>
   <si>
-    <t>Improve infrastructure and management of kindergartens in Marneuli region.    </t>
+    <t>Improve infrastructure and management of kindergartens in Marneuli region.</t>
   </si>
   <si>
     <t>Union of Chiaturians</t>
@@ -1117,7 +1099,7 @@
     <t>Assisting System Changes for Achieving Social and Legal Guarantees for Single Mothers</t>
   </si>
   <si>
-    <t>Define the concept and the status of single mothers and establish social and legal guarantees for them that do not exist in the current legislation. </t>
+    <t>Define the concept and the status of single mothers and establish social and legal guarantees for them that do not exist in the current legislation.</t>
   </si>
   <si>
     <t>Borjghali</t>
@@ -1147,7 +1129,7 @@
     <t>Advocacy of Children with Special Needs</t>
   </si>
   <si>
-    <t>Recommend further legislation about children with special needs and their rights. </t>
+    <t>Recommend further legislation about children with special needs and their rights.</t>
   </si>
   <si>
     <t>Innovative Approach to Agricultural Policy Making</t>
@@ -1198,7 +1180,7 @@
     <t>Study the experiences of student self-governance systems at five leading European universities and, considering Georgia’s reality, advocate the adoption of new mechanisms in this direction.</t>
   </si>
   <si>
-    <t>Protect Citizens from the Negative Environmental Impact </t>
+    <t>Protect Citizens from the Negative Environmental Impact</t>
   </si>
   <si>
     <t>Protect Citizens from the Negative Environmental Impact of Kutaisi Metallurgical Works.</t>
@@ -1282,7 +1264,7 @@
     <t>Advocacy Campaign to combat Hepatitis C</t>
   </si>
   <si>
-    <t>Emphasize the problem of spread of HCV to the decision-makers and make it on the top of government healthcare agenda; advocate for allocating relevant budget funds for combating the virus in 2014 year state budget.   </t>
+    <t>Emphasize the problem of spread of HCV to the decision-makers and make it on the top of government healthcare agenda; advocate for allocating relevant budget funds for combating the virus in 2014 year state budget.</t>
   </si>
   <si>
     <t>Foundation “Partnership for Road Safety”</t>
@@ -1339,10 +1321,7 @@
     <t>Development of the Study Course "Security Policy: Theory and Practice"</t>
   </si>
   <si>
-    <t>$9,860.00</t>
-  </si>
-  <si>
-    <t>Develop two-semester long course “Security Policy: Theory and Practice”. </t>
+    <t>Develop two-semester long course “Security Policy: Theory and Practice”.</t>
   </si>
   <si>
     <t>Association of Young Constitutionalists of Georgia</t>
@@ -1393,13 +1372,10 @@
     <t>Support children with hearing problems to get primary education opportunities in Batumi</t>
   </si>
   <si>
-    <t>Green Alternative</t>
-  </si>
-  <si>
     <t>Promoting Public Participation in the Decision-Making Processes</t>
   </si>
   <si>
-    <t>Improve public participation and transparency in the decision-making processes pertaining to development projects with potentially significant environmental and social impacts. </t>
+    <t>Improve public participation and transparency in the decision-making processes pertaining to development projects with potentially significant environmental and social impacts.</t>
   </si>
   <si>
     <t>Build a sustainable and effective civil society network of regional organizations, which will be able to coordinate its efforts, plan and implement joint advocacy and watchdog campaigns.</t>
@@ -1411,7 +1387,7 @@
     <t>Advocacy for Accessibility of Public Services for Elderly</t>
   </si>
   <si>
-    <t>Ensure that 188 socially unprotected elderly people in Batumi who live alone use municipal transport for free. </t>
+    <t>Ensure that 188 socially unprotected elderly people in Batumi who live alone use municipal transport for free.</t>
   </si>
   <si>
     <t>Regional Cinema Association</t>
@@ -1429,7 +1405,7 @@
     <t>Protecting Rights of War Veterans for their Social Wellbeing</t>
   </si>
   <si>
-    <t>Analyze the socio-economic problems of veterans, prepare policy recommendations, and advocate the government and Parliament to take legislative action to address veterans’ needs.  </t>
+    <t>Analyze the socio-economic problems of veterans, prepare policy recommendations, and advocate the government and Parliament to take legislative action to address veterans’ needs.</t>
   </si>
   <si>
     <t>Union of People with Different Abilities</t>
@@ -1444,13 +1420,13 @@
     <t>Georgian Institute for Strategic Studies</t>
   </si>
   <si>
-    <t>Assessment of Visa Liberalization Process in Georgia and Expected Challenges in Action Plan Implementation </t>
+    <t>Assessment of Visa Liberalization Process in Georgia and Expected Challenges in Action Plan Implementation</t>
   </si>
   <si>
     <t>Foreign Policy</t>
   </si>
   <si>
-    <t>Identify strategies to address the major challenges in the visa liberalization process and engage the public in the process and generate public approval for the recommended activities. </t>
+    <t>Identify strategies to address the major challenges in the visa liberalization process and engage the public in the process and generate public approval for the recommended activities.</t>
   </si>
   <si>
     <t>Salome Chikviladze</t>
@@ -1459,7 +1435,7 @@
     <t>Campaign in Necessity of Restoring Medical Service Points at Georgian Public Schools</t>
   </si>
   <si>
-    <t>Conduct research and organize an advocacy campaign to revive nurse’s offices at secondary schools in Georgia. </t>
+    <t>Conduct research and organize an advocacy campaign to revive nurse’s offices at secondary schools in Georgia.</t>
   </si>
   <si>
     <t>Civil Society Development Center</t>
@@ -1468,13 +1444,13 @@
     <t>I am a Citizen Too</t>
   </si>
   <si>
-    <t>Improve state policies and services pertaining to homeless children through active engagement of state and civil society actors.  </t>
+    <t>Improve state policies and services pertaining to homeless children through active engagement of state and civil society actors.</t>
   </si>
   <si>
     <t>Waste Wrestlers (Purgamentum Praemonitus)</t>
   </si>
   <si>
-    <t>Advocate for the closure of the Kutaisi landfill and disseminate information on its current status through artistic activism.    </t>
+    <t>Advocate for the closure of the Kutaisi landfill and disseminate information on its current status through artistic activism.</t>
   </si>
   <si>
     <t>Children and Youth Development Fund of Georgia</t>
@@ -1495,19 +1471,16 @@
     <t>Encourage Russian-speaking ethnic minorities in Tbilisi to actively participate in the elections though raising awareness about the essence and value of elections, importance of manifestation of own civic stand, and increasing level of electoral literacy.</t>
   </si>
   <si>
-    <t>Institute for Development of Freedom of Information </t>
-  </si>
-  <si>
     <t>State-owned Enterprises (SOE) and their Efficiency in Georgia. Focus: Agriculture Sector</t>
   </si>
   <si>
-    <t>Initiate a public discussion about SOEs as a means to achieve policy changes that increase the transparency and efficiency of SOE funding and operations. </t>
+    <t>Initiate a public discussion about SOEs as a means to achieve policy changes that increase the transparency and efficiency of SOE funding and operations.</t>
   </si>
   <si>
     <t>"Analysis of State Procurement Policy and Development of Policy Recommendations"</t>
   </si>
   <si>
-    <t>Improve public procurement policies and processes in Georgia to ensure a fair and transparent system that improves the quality of the goods and services the government purchases.  </t>
+    <t>Improve public procurement policies and processes in Georgia to ensure a fair and transparent system that improves the quality of the goods and services the government purchases.</t>
   </si>
   <si>
     <t>Education Financing System and Equity in Georgia</t>
@@ -1528,7 +1501,7 @@
     <t>Ecomigration policy</t>
   </si>
   <si>
-    <t>Facilitate social integration of eco migrants in new settlements and improve their socio-economic conditions.  </t>
+    <t>Facilitate social integration of eco migrants in new settlements and improve their socio-economic conditions.</t>
   </si>
   <si>
     <t>Human Rights Education and Monitoring Center (EMC)</t>
@@ -1537,13 +1510,13 @@
     <t>Right to Adequate Housing for Social Justice</t>
   </si>
   <si>
-    <t>Protect the rights of homeless people through assessing the needs of these people, analyzing relevant state policy, and developing policy recommendations to improve their wellbeing. </t>
+    <t>Protect the rights of homeless people through assessing the needs of these people, analyzing relevant state policy, and developing policy recommendations to improve their wellbeing.</t>
   </si>
   <si>
     <t>Advocacy for Provision of Villages of Telavi Municipality with Natural Gas</t>
   </si>
   <si>
-    <t>Increase access to natural gas for the residents of Telavi municipality. </t>
+    <t>Increase access to natural gas for the residents of Telavi municipality.</t>
   </si>
   <si>
     <t>Tolerance and Diversity Institute</t>
@@ -1552,19 +1525,19 @@
     <t>A Study of Constitutional Secularism and Religious Discrimination in Georgia</t>
   </si>
   <si>
-    <t>Protect the rights of religious minorities by sparking public dialogue about the nature of a secular Georgian state and facilitating relevant policy changes. </t>
+    <t>Protect the rights of religious minorities by sparking public dialogue about the nature of a secular Georgian state and facilitating relevant policy changes.</t>
   </si>
   <si>
     <t>Management of Risks Associated with the Erosion of the Black Sea Coast</t>
   </si>
   <si>
-    <t>Conduct in-depth research of eroded sections of the Black Sea coastline, analyze current risks, develop a risk management strategy to protect the rights of people residing in high-risk areas, and ensure public inclusion in and oversight over state actions in this regard. </t>
+    <t>Conduct in-depth research of eroded sections of the Black Sea coastline, analyze current risks, develop a risk management strategy to protect the rights of people residing in high-risk areas, and ensure public inclusion in and oversight over state actions in this regard.</t>
   </si>
   <si>
     <t>Improving Social Policy Education at Georgian Universities</t>
   </si>
   <si>
-    <t>Improve quality of the teaching of social policy in Georgian higher education institutions. </t>
+    <t>Improve quality of the teaching of social policy in Georgian higher education institutions.</t>
   </si>
   <si>
     <t>International School of Economics at Tbilisi State University</t>
@@ -1582,13 +1555,10 @@
     <t>Development of Public Administration</t>
   </si>
   <si>
-    <t>Develop a reader in public administration adapted to Georgian context. </t>
-  </si>
-  <si>
-    <t>Civil Society Institute</t>
-  </si>
-  <si>
-    <t>Ensure a legislative environment that promotes the financial sustainability of CSOs. </t>
+    <t>Develop a reader in public administration adapted to Georgian context.</t>
+  </si>
+  <si>
+    <t>Ensure a legislative environment that promotes the financial sustainability of CSOs.</t>
   </si>
   <si>
     <t>Analyses of Medium Term Fiscal Policy Sustainability in Georgia</t>
@@ -1621,7 +1591,7 @@
     <t>Protection of public environmental rights though Regional Civil Society Network (R-CSN)</t>
   </si>
   <si>
-    <t>Protect rights of residents of industrial cities of Bolnisi, Tkibuli and Kutaisi, and ensure public participation in development, implementation and monitoring of the Local Environmental Action Plans (LEAP) with support of R-CSN member organizations. </t>
+    <t>Protect rights of residents of industrial cities of Bolnisi, Tkibuli and Kutaisi, and ensure public participation in development, implementation and monitoring of the Local Environmental Action Plans (LEAP) with support of R-CSN member organizations.</t>
   </si>
   <si>
     <t>Society Biliki</t>
@@ -1648,7 +1618,7 @@
     <t>Consumers Rights</t>
   </si>
   <si>
-    <t>Improve the provision of utilities in the regions of Georgia, specifically in the towns and cities of Khelvachauri, Kobuleti, Lanchkhuti, Kutaisi, Zugdidi, Gori, Mtskheta, Akhaltsikhe, and Telavi. </t>
+    <t>Improve the provision of utilities in the regions of Georgia, specifically in the towns and cities of Khelvachauri, Kobuleti, Lanchkhuti, Kutaisi, Zugdidi, Gori, Mtskheta, Akhaltsikhe, and Telavi.</t>
   </si>
   <si>
     <t>Kakheti Civic League</t>
@@ -1672,16 +1642,16 @@
     <t>Protection of Public Interests in three municipalities of Kakheti</t>
   </si>
   <si>
-    <t>Increase the accessibility of state social and healthcare programs to residents of Kakheti region and develop a state referral system through raising awareness and engagement of stakeholders. </t>
-  </si>
-  <si>
-    <t>Georgian Young Lawyers' Association </t>
+    <t>Increase the accessibility of state social and healthcare programs to residents of Kakheti region and develop a state referral system through raising awareness and engagement of stakeholders.</t>
+  </si>
+  <si>
+    <t>Georgian Young Lawyers' Association</t>
   </si>
   <si>
     <t>Get Engaged in Decision-making Process</t>
   </si>
   <si>
-    <t>Solve specific problems faced by the Imereti population with the active engagement of local majoritarian MPs, the Governor of Imereti, and local government representatives.  </t>
+    <t>Solve specific problems faced by the Imereti population with the active engagement of local majoritarian MPs, the Governor of Imereti, and local government representatives.</t>
   </si>
   <si>
     <t>Preshool Education - Our Right</t>
@@ -1693,7 +1663,7 @@
     <t>Environmental monitoring for the protection of the rights of Chiatura residents</t>
   </si>
   <si>
-    <t>Protect the environmental rights of the Chiatura population and monitor implementation of environmental obligations by Georgian Manganese Ltd (the manganese mining company operating in Chiatura). </t>
+    <t>Protect the environmental rights of the Chiatura population and monitor implementation of environmental obligations by Georgian Manganese Ltd (the manganese mining company operating in Chiatura).</t>
   </si>
   <si>
     <t>Advocacy for Protection of Local Community Rights During the Implementation of HPP proejcts in Kazbegi region</t>
@@ -1705,10 +1675,10 @@
     <t>Garden Gudiashvili Square</t>
   </si>
   <si>
-    <t>Carrying out an information campaign about the value of cultural heritage protection issue, Gudiashvili Square in particular and advocating for the adoption of the recommendations for adequate restorations to the Gudiashvili Square area. </t>
-  </si>
-  <si>
-    <t>Association of Young Economists of Georgia </t>
+    <t>Carrying out an information campaign about the value of cultural heritage protection issue, Gudiashvili Square in particular and advocating for the adoption of the recommendations for adequate restorations to the Gudiashvili Square area.</t>
+  </si>
+  <si>
+    <t>Association of Young Economists of Georgia</t>
   </si>
   <si>
     <t>Responsible Local Government</t>
@@ -1720,7 +1690,7 @@
     <t>Volunteerism Network</t>
   </si>
   <si>
-    <t>Increase youth engagement through the development of a volunteerism network.  </t>
+    <t>Increase youth engagement through the development of a volunteerism network.</t>
   </si>
   <si>
     <t>Kutaisi University</t>
@@ -1741,7 +1711,7 @@
     <t>Public Priorities</t>
   </si>
   <si>
-    <t>Remove obstacles that leave urban greenery unprotected, improve policies, government transparency and accountability, informed public participation, and media coverage of the issue. </t>
+    <t>Remove obstacles that leave urban greenery unprotected, improve policies, government transparency and accountability, informed public participation, and media coverage of the issue.</t>
   </si>
   <si>
     <t>Georgian Autism Association</t>
@@ -1750,7 +1720,7 @@
     <t>Advocacy for Protection of Health and Education Rights of People with Autism Spectrum Disorders</t>
   </si>
   <si>
-    <t> Develop state policy tailored to needs of people with ASD. </t>
+    <t>Develop state policy tailored to needs of people with ASD.</t>
   </si>
 </sst>
 </file>
@@ -1759,8 +1729,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)" numFmtId="165"/>
-    <numFmt formatCode="M/D/YYYY" numFmtId="166"/>
+    <numFmt formatCode="M/D/YYYY" numFmtId="165"/>
+    <numFmt formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)" numFmtId="166"/>
     <numFmt formatCode="\$#,##0.00;[RED]\$#,##0.00" numFmtId="167"/>
     <numFmt formatCode="M/D/YYYY;@" numFmtId="168"/>
   </numFmts>
@@ -1927,7 +1897,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="20">
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -1948,26 +1918,14 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -1984,7 +1942,7 @@
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="2" fontId="0" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="2" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2020,7 +1978,7 @@
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="2" fontId="4" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="2" fontId="4" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2060,7 +2018,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="9" fillId="0" fontId="0" numFmtId="166" xfId="17">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="9" fillId="0" fontId="0" numFmtId="165" xfId="17">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2092,14 +2050,6 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="justify" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="justify" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -2121,16 +2071,13 @@
       <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
     <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
     <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Currency 2" xfId="20"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Currency 3" xfId="21"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Normal 2" xfId="22"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2195,10 +2142,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -2207,12 +2150,12 @@
   <dimension ref="1:190"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A137" xSplit="0" ySplit="2"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A135" xSplit="0" ySplit="2"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="I137" activeCellId="0" pane="bottomLeft" sqref="I137"/>
+      <selection activeCell="D139" activeCellId="0" pane="bottomLeft" sqref="D139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.3"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.71255060728745"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="20.7085020242915"/>
@@ -2227,7 +2170,7 @@
     <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1" s="9">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="1" s="9">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2337,7 +2280,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="60.75" outlineLevel="0" r="2" s="18">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="58" outlineLevel="0" r="2" s="18">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -2991,7 +2934,7 @@
       <c r="S14" s="21"/>
       <c r="T14" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="15" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="15">
       <c r="A15" s="20" t="n">
         <v>13</v>
       </c>
@@ -3033,7 +2976,7 @@
       <c r="S15" s="21"/>
       <c r="T15" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="16" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="16">
       <c r="A16" s="20" t="n">
         <v>14</v>
       </c>
@@ -3075,7 +3018,7 @@
       <c r="S16" s="21"/>
       <c r="T16" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="17" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="17">
       <c r="A17" s="20" t="n">
         <v>15</v>
       </c>
@@ -3117,7 +3060,7 @@
       <c r="S17" s="21"/>
       <c r="T17" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="18" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="18">
       <c r="A18" s="20" t="n">
         <v>16</v>
       </c>
@@ -3159,7 +3102,7 @@
       <c r="S18" s="21"/>
       <c r="T18" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="19" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="19">
       <c r="A19" s="20" t="n">
         <v>17</v>
       </c>
@@ -3201,7 +3144,7 @@
       <c r="S19" s="21"/>
       <c r="T19" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="20" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="20">
       <c r="A20" s="20" t="n">
         <v>18</v>
       </c>
@@ -3259,7 +3202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="21" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="21">
       <c r="A21" s="20" t="n">
         <v>19</v>
       </c>
@@ -3301,7 +3244,7 @@
       <c r="S21" s="21"/>
       <c r="T21" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="22" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="22">
       <c r="A22" s="20" t="n">
         <v>20</v>
       </c>
@@ -3343,7 +3286,7 @@
       <c r="S22" s="21"/>
       <c r="T22" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="23" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="23">
       <c r="A23" s="20" t="n">
         <v>21</v>
       </c>
@@ -3393,7 +3336,7 @@
       <c r="S23" s="21"/>
       <c r="T23" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="24" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="24">
       <c r="A24" s="20" t="n">
         <v>22</v>
       </c>
@@ -3441,7 +3384,7 @@
       <c r="S24" s="21"/>
       <c r="T24" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="25" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="25">
       <c r="A25" s="20" t="n">
         <v>23</v>
       </c>
@@ -3487,7 +3430,7 @@
       <c r="S25" s="21"/>
       <c r="T25" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="26" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="26">
       <c r="A26" s="20" t="n">
         <v>24</v>
       </c>
@@ -3529,7 +3472,7 @@
       <c r="S26" s="21"/>
       <c r="T26" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="27" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="27">
       <c r="A27" s="20" t="n">
         <v>25</v>
       </c>
@@ -3575,7 +3518,7 @@
       <c r="S27" s="21"/>
       <c r="T27" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="28" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="28">
       <c r="A28" s="20" t="n">
         <v>26</v>
       </c>
@@ -3617,7 +3560,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="29" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="29">
       <c r="A29" s="20" t="n">
         <v>27</v>
       </c>
@@ -3659,7 +3602,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="30" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="30">
       <c r="A30" s="20" t="n">
         <v>28</v>
       </c>
@@ -3701,7 +3644,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="31" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="31">
       <c r="A31" s="20" t="n">
         <v>29</v>
       </c>
@@ -3743,7 +3686,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="32" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="32">
       <c r="A32" s="20" t="n">
         <v>30</v>
       </c>
@@ -3785,7 +3728,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="33" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="33">
       <c r="A33" s="20" t="n">
         <v>31</v>
       </c>
@@ -3827,7 +3770,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="34" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="34">
       <c r="A34" s="20" t="n">
         <v>32</v>
       </c>
@@ -3869,7 +3812,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="35" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="35">
       <c r="A35" s="20" t="n">
         <v>33</v>
       </c>
@@ -3911,7 +3854,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="36" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="36">
       <c r="A36" s="20" t="n">
         <v>34</v>
       </c>
@@ -3959,7 +3902,7 @@
       <c r="S36" s="21"/>
       <c r="T36" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="37" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="37">
       <c r="A37" s="20" t="n">
         <v>35</v>
       </c>
@@ -4007,7 +3950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="38" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="38">
       <c r="A38" s="20" t="n">
         <v>36</v>
       </c>
@@ -4049,7 +3992,7 @@
       <c r="S38" s="21"/>
       <c r="T38" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="39" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="39">
       <c r="A39" s="20" t="n">
         <v>37</v>
       </c>
@@ -4091,7 +4034,7 @@
       <c r="S39" s="21"/>
       <c r="T39" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="40" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="40">
       <c r="A40" s="20" t="n">
         <v>38</v>
       </c>
@@ -4114,10 +4057,10 @@
         <v>154</v>
       </c>
       <c r="H40" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="I40" s="25" t="s">
         <v>159</v>
-      </c>
-      <c r="I40" s="25" t="s">
-        <v>160</v>
       </c>
       <c r="J40" s="26" t="s">
         <v>25</v>
@@ -4133,15 +4076,15 @@
       <c r="S40" s="21"/>
       <c r="T40" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="41" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="41">
       <c r="A41" s="20" t="n">
         <v>39</v>
       </c>
       <c r="B41" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>161</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>162</v>
       </c>
       <c r="D41" s="22" t="n">
         <v>9430</v>
@@ -4156,10 +4099,10 @@
         <v>154</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J41" s="26"/>
       <c r="K41" s="21"/>
@@ -4175,7 +4118,7 @@
       <c r="S41" s="21"/>
       <c r="T41" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="42" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="42">
       <c r="A42" s="20" t="n">
         <v>40</v>
       </c>
@@ -4183,7 +4126,7 @@
         <v>157</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D42" s="22" t="n">
         <v>9820</v>
@@ -4201,10 +4144,10 @@
         <v>155</v>
       </c>
       <c r="I42" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="J42" s="26" t="s">
         <v>165</v>
-      </c>
-      <c r="J42" s="26" t="s">
-        <v>166</v>
       </c>
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
@@ -4217,15 +4160,15 @@
       <c r="S42" s="21"/>
       <c r="T42" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="43" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="43">
       <c r="A43" s="20" t="n">
         <v>41</v>
       </c>
       <c r="B43" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>167</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>168</v>
       </c>
       <c r="D43" s="22" t="n">
         <v>7510</v>
@@ -4240,10 +4183,10 @@
         <v>154</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J43" s="26"/>
       <c r="K43" s="21"/>
@@ -4259,15 +4202,15 @@
       <c r="S43" s="21"/>
       <c r="T43" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="44" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="44">
       <c r="A44" s="20" t="n">
         <v>42</v>
       </c>
       <c r="B44" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>171</v>
       </c>
       <c r="D44" s="22" t="n">
         <v>10000</v>
@@ -4285,7 +4228,7 @@
         <v>155</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J44" s="26"/>
       <c r="K44" s="21"/>
@@ -4301,15 +4244,15 @@
       </c>
       <c r="T44" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="45" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="45">
       <c r="A45" s="20" t="n">
         <v>43</v>
       </c>
       <c r="B45" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="21" t="s">
         <v>173</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>174</v>
       </c>
       <c r="D45" s="22" t="n">
         <v>200035</v>
@@ -4327,7 +4270,7 @@
         <v>155</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J45" s="26"/>
       <c r="K45" s="21"/>
@@ -4343,15 +4286,15 @@
       <c r="S45" s="21"/>
       <c r="T45" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="46" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="46">
       <c r="A46" s="20" t="n">
         <v>44</v>
       </c>
       <c r="B46" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>176</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>177</v>
       </c>
       <c r="D46" s="22" t="n">
         <v>9990</v>
@@ -4369,7 +4312,7 @@
         <v>155</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J46" s="26"/>
       <c r="K46" s="21"/>
@@ -4385,15 +4328,15 @@
       </c>
       <c r="T46" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="47" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="47">
       <c r="A47" s="20" t="n">
         <v>45</v>
       </c>
       <c r="B47" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>179</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>180</v>
       </c>
       <c r="D47" s="22" t="n">
         <v>9614</v>
@@ -4411,7 +4354,7 @@
         <v>155</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J47" s="26"/>
       <c r="K47" s="21"/>
@@ -4427,15 +4370,15 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="48" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="48">
       <c r="A48" s="20" t="n">
         <v>46</v>
       </c>
       <c r="B48" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="21" t="s">
         <v>182</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>183</v>
       </c>
       <c r="D48" s="22" t="n">
         <v>49950</v>
@@ -4450,10 +4393,10 @@
         <v>82</v>
       </c>
       <c r="H48" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="I48" s="25" t="s">
         <v>184</v>
-      </c>
-      <c r="I48" s="25" t="s">
-        <v>185</v>
       </c>
       <c r="J48" s="26"/>
       <c r="K48" s="21"/>
@@ -4469,7 +4412,7 @@
       <c r="S48" s="21"/>
       <c r="T48" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="49" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="49">
       <c r="A49" s="20" t="n">
         <v>47</v>
       </c>
@@ -4477,7 +4420,7 @@
         <v>157</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D49" s="22" t="n">
         <v>9140</v>
@@ -4495,7 +4438,7 @@
         <v>155</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J49" s="26" t="s">
         <v>25</v>
@@ -4511,15 +4454,15 @@
       <c r="S49" s="21"/>
       <c r="T49" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="50" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="50">
       <c r="A50" s="20" t="n">
         <v>48</v>
       </c>
       <c r="B50" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>188</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>189</v>
       </c>
       <c r="D50" s="22" t="n">
         <v>9995</v>
@@ -4531,13 +4474,13 @@
         <v>41105</v>
       </c>
       <c r="G50" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="H50" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="H50" s="24" t="s">
+      <c r="I50" s="25" t="s">
         <v>191</v>
-      </c>
-      <c r="I50" s="25" t="s">
-        <v>192</v>
       </c>
       <c r="J50" s="26"/>
       <c r="K50" s="21"/>
@@ -4553,15 +4496,15 @@
       <c r="S50" s="21"/>
       <c r="T50" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="51" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="51">
       <c r="A51" s="20" t="n">
         <v>49</v>
       </c>
       <c r="B51" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="21" t="s">
         <v>193</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>194</v>
       </c>
       <c r="D51" s="22" t="n">
         <v>9997</v>
@@ -4573,13 +4516,13 @@
         <v>41274</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H51" s="24" t="s">
         <v>86</v>
       </c>
       <c r="I51" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J51" s="26"/>
       <c r="K51" s="21"/>
@@ -4595,15 +4538,15 @@
       <c r="S51" s="21"/>
       <c r="T51" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="52" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="52">
       <c r="A52" s="20" t="n">
         <v>50</v>
       </c>
       <c r="B52" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>196</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>197</v>
       </c>
       <c r="D52" s="22" t="n">
         <v>9957</v>
@@ -4615,13 +4558,13 @@
         <v>41213</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H52" s="24" t="s">
         <v>131</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J52" s="26"/>
       <c r="K52" s="21" t="s">
@@ -4637,15 +4580,15 @@
       <c r="S52" s="21"/>
       <c r="T52" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="53" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="53">
       <c r="A53" s="20" t="n">
         <v>51</v>
       </c>
       <c r="B53" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" s="21" t="s">
         <v>199</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>200</v>
       </c>
       <c r="D53" s="22" t="n">
         <v>29570</v>
@@ -4660,10 +4603,10 @@
         <v>149</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I53" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J53" s="26"/>
       <c r="K53" s="21"/>
@@ -4679,15 +4622,15 @@
       <c r="S53" s="21"/>
       <c r="T53" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="54" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="54">
       <c r="A54" s="20" t="n">
         <v>52</v>
       </c>
       <c r="B54" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="21" t="s">
         <v>202</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>203</v>
       </c>
       <c r="D54" s="22" t="n">
         <v>19585</v>
@@ -4705,7 +4648,7 @@
         <v>50</v>
       </c>
       <c r="I54" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J54" s="26"/>
       <c r="K54" s="21"/>
@@ -4721,15 +4664,15 @@
       <c r="S54" s="21"/>
       <c r="T54" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="55" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="55">
       <c r="A55" s="20" t="n">
         <v>53</v>
       </c>
       <c r="B55" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="21" t="s">
         <v>205</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>206</v>
       </c>
       <c r="D55" s="22" t="n">
         <v>19548</v>
@@ -4744,10 +4687,10 @@
         <v>22</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>207</v>
+        <v>43</v>
       </c>
       <c r="I55" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J55" s="26"/>
       <c r="K55" s="21"/>
@@ -4763,15 +4706,15 @@
       <c r="S55" s="21"/>
       <c r="T55" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="56" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="56">
       <c r="A56" s="20" t="n">
         <v>54</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D56" s="22" t="n">
         <v>13965</v>
@@ -4789,7 +4732,7 @@
         <v>50</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J56" s="26"/>
       <c r="K56" s="21"/>
@@ -4805,15 +4748,15 @@
       <c r="S56" s="21"/>
       <c r="T56" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="57" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="57">
       <c r="A57" s="20" t="n">
         <v>55</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D57" s="22" t="n">
         <v>19350</v>
@@ -4831,7 +4774,7 @@
         <v>50</v>
       </c>
       <c r="I57" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J57" s="26"/>
       <c r="K57" s="21"/>
@@ -4847,15 +4790,15 @@
       <c r="S57" s="21"/>
       <c r="T57" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="58" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="58">
       <c r="A58" s="20" t="n">
         <v>56</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D58" s="22" t="n">
         <v>17624</v>
@@ -4870,10 +4813,10 @@
         <v>22</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J58" s="26"/>
       <c r="K58" s="21"/>
@@ -4889,15 +4832,15 @@
       <c r="S58" s="21"/>
       <c r="T58" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="59" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="59">
       <c r="A59" s="20" t="n">
         <v>57</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D59" s="22" t="n">
         <v>4364.67</v>
@@ -4909,13 +4852,13 @@
         <v>41005</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J59" s="26"/>
       <c r="K59" s="21"/>
@@ -4931,15 +4874,15 @@
       <c r="S59" s="21"/>
       <c r="T59" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="60" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="60">
       <c r="A60" s="20" t="n">
         <v>58</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D60" s="22" t="n">
         <v>49840</v>
@@ -4957,7 +4900,7 @@
         <v>90</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J60" s="26"/>
       <c r="K60" s="21"/>
@@ -4975,15 +4918,15 @@
       <c r="S60" s="21"/>
       <c r="T60" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="61" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="61">
       <c r="A61" s="20" t="n">
         <v>59</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D61" s="22" t="n">
         <v>18663</v>
@@ -5001,7 +4944,7 @@
         <v>90</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J61" s="26" t="s">
         <v>25</v>
@@ -5019,7 +4962,7 @@
       <c r="S61" s="21"/>
       <c r="T61" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="62" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="62">
       <c r="A62" s="20" t="n">
         <v>60</v>
       </c>
@@ -5027,7 +4970,7 @@
         <v>152</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D62" s="22" t="n">
         <v>9605</v>
@@ -5045,7 +4988,7 @@
         <v>155</v>
       </c>
       <c r="I62" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J62" s="26"/>
       <c r="K62" s="21"/>
@@ -5061,15 +5004,15 @@
       <c r="S62" s="21"/>
       <c r="T62" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="63" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="63">
       <c r="A63" s="20" t="n">
         <v>61</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D63" s="22" t="n">
         <v>28328</v>
@@ -5087,7 +5030,7 @@
         <v>23</v>
       </c>
       <c r="I63" s="25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J63" s="26"/>
       <c r="K63" s="21"/>
@@ -5103,15 +5046,15 @@
       <c r="S63" s="21"/>
       <c r="T63" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="64" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="64">
       <c r="A64" s="20" t="n">
         <v>62</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D64" s="22" t="n">
         <v>25760</v>
@@ -5129,7 +5072,7 @@
         <v>118</v>
       </c>
       <c r="I64" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J64" s="26" t="s">
         <v>25</v>
@@ -5151,15 +5094,15 @@
       <c r="S64" s="21"/>
       <c r="T64" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="65" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="65">
       <c r="A65" s="20" t="n">
         <v>63</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D65" s="22" t="n">
         <v>29907.5</v>
@@ -5177,7 +5120,7 @@
         <v>23</v>
       </c>
       <c r="I65" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J65" s="26"/>
       <c r="K65" s="21"/>
@@ -5193,15 +5136,15 @@
       <c r="S65" s="21"/>
       <c r="T65" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="66" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="66">
       <c r="A66" s="20" t="n">
         <v>64</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D66" s="22" t="n">
         <v>50990</v>
@@ -5216,10 +5159,10 @@
         <v>105</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I66" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J66" s="26"/>
       <c r="K66" s="21"/>
@@ -5239,15 +5182,15 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="67" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="67">
       <c r="A67" s="20" t="n">
         <v>65</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D67" s="22" t="n">
         <v>59270</v>
@@ -5262,10 +5205,10 @@
         <v>105</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J67" s="26"/>
       <c r="K67" s="21"/>
@@ -5287,15 +5230,15 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="68" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="68">
       <c r="A68" s="20" t="n">
         <v>66</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D68" s="22" t="n">
         <v>52277.6</v>
@@ -5313,7 +5256,7 @@
         <v>35</v>
       </c>
       <c r="I68" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J68" s="26"/>
       <c r="K68" s="21"/>
@@ -5329,15 +5272,15 @@
       <c r="S68" s="21"/>
       <c r="T68" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="69" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="69">
       <c r="A69" s="20" t="n">
         <v>67</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D69" s="22" t="n">
         <v>30915</v>
@@ -5352,10 +5295,10 @@
         <v>105</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J69" s="26" t="s">
         <v>25</v>
@@ -5383,15 +5326,15 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="70" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="70">
       <c r="A70" s="20" t="n">
         <v>68</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D70" s="22" t="n">
         <v>68968</v>
@@ -5406,10 +5349,10 @@
         <v>105</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J70" s="26"/>
       <c r="K70" s="21"/>
@@ -5425,7 +5368,7 @@
       <c r="S70" s="21"/>
       <c r="T70" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="71" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="71">
       <c r="A71" s="20" t="n">
         <v>69</v>
       </c>
@@ -5433,7 +5376,7 @@
         <v>95</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D71" s="22" t="n">
         <v>79850</v>
@@ -5448,10 +5391,10 @@
         <v>82</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J71" s="26" t="s">
         <v>25</v>
@@ -5475,15 +5418,15 @@
       <c r="S71" s="21"/>
       <c r="T71" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="72" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="72">
       <c r="A72" s="20" t="n">
         <v>70</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D72" s="22" t="n">
         <v>78995</v>
@@ -5498,10 +5441,10 @@
         <v>82</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J72" s="26"/>
       <c r="K72" s="21"/>
@@ -5517,15 +5460,15 @@
       <c r="S72" s="21"/>
       <c r="T72" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="73" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="73">
       <c r="A73" s="20" t="n">
         <v>71</v>
       </c>
       <c r="B73" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="21" t="s">
         <v>173</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>174</v>
       </c>
       <c r="D73" s="22" t="n">
         <v>9167.55</v>
@@ -5543,7 +5486,7 @@
         <v>155</v>
       </c>
       <c r="I73" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J73" s="26"/>
       <c r="K73" s="21"/>
@@ -5559,7 +5502,7 @@
       <c r="S73" s="21"/>
       <c r="T73" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="102.75" outlineLevel="0" r="74" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="102.75" outlineLevel="0" r="74">
       <c r="A74" s="20" t="n">
         <v>72</v>
       </c>
@@ -5567,7 +5510,7 @@
         <v>26</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D74" s="22" t="n">
         <v>27670</v>
@@ -5585,7 +5528,7 @@
         <v>23</v>
       </c>
       <c r="I74" s="25" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J74" s="26"/>
       <c r="K74" s="21"/>
@@ -5601,15 +5544,15 @@
       <c r="S74" s="21"/>
       <c r="T74" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="75" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="75">
       <c r="A75" s="20" t="n">
         <v>73</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D75" s="22" t="n">
         <v>28466</v>
@@ -5627,7 +5570,7 @@
         <v>64</v>
       </c>
       <c r="I75" s="25" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J75" s="26"/>
       <c r="K75" s="21"/>
@@ -5643,15 +5586,15 @@
       <c r="S75" s="21"/>
       <c r="T75" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="76" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="76">
       <c r="A76" s="20" t="n">
         <v>74</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D76" s="22" t="n">
         <v>27690</v>
@@ -5666,10 +5609,10 @@
         <v>22</v>
       </c>
       <c r="H76" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I76" s="25" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J76" s="26"/>
       <c r="K76" s="21"/>
@@ -5685,7 +5628,7 @@
       <c r="S76" s="21"/>
       <c r="T76" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="77" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="77">
       <c r="A77" s="20" t="n">
         <v>75</v>
       </c>
@@ -5693,7 +5636,7 @@
         <v>129</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D77" s="22" t="n">
         <v>25850</v>
@@ -5711,7 +5654,7 @@
         <v>90</v>
       </c>
       <c r="I77" s="25" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J77" s="26" t="s">
         <v>25</v>
@@ -5727,15 +5670,15 @@
       <c r="S77" s="21"/>
       <c r="T77" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="78" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="78">
       <c r="A78" s="20" t="n">
         <v>76</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D78" s="22" t="n">
         <v>27242</v>
@@ -5750,10 +5693,10 @@
         <v>22</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>207</v>
+        <v>43</v>
       </c>
       <c r="I78" s="25" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J78" s="26"/>
       <c r="K78" s="21"/>
@@ -5769,7 +5712,7 @@
       <c r="S78" s="21"/>
       <c r="T78" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="79" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="79">
       <c r="A79" s="20" t="n">
         <v>77</v>
       </c>
@@ -5777,7 +5720,7 @@
         <v>123</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D79" s="22" t="n">
         <v>24454</v>
@@ -5795,7 +5738,7 @@
         <v>64</v>
       </c>
       <c r="I79" s="25" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J79" s="26"/>
       <c r="K79" s="21" t="s">
@@ -5811,15 +5754,15 @@
       <c r="S79" s="21"/>
       <c r="T79" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="80" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="80">
       <c r="A80" s="20" t="n">
         <v>78</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D80" s="22" t="n">
         <v>15352</v>
@@ -5837,7 +5780,7 @@
         <v>31</v>
       </c>
       <c r="I80" s="25" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J80" s="26"/>
       <c r="K80" s="21"/>
@@ -5853,15 +5796,15 @@
       <c r="S80" s="21"/>
       <c r="T80" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="81" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="81">
       <c r="A81" s="20" t="n">
         <v>79</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D81" s="22" t="n">
         <v>19980</v>
@@ -5876,10 +5819,10 @@
         <v>22</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>282</v>
+        <v>54</v>
       </c>
       <c r="I81" s="25" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J81" s="26"/>
       <c r="K81" s="21"/>
@@ -5895,15 +5838,15 @@
       <c r="S81" s="21"/>
       <c r="T81" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="82" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="82">
       <c r="A82" s="20" t="n">
         <v>80</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D82" s="22" t="n">
         <v>19970</v>
@@ -5918,10 +5861,10 @@
         <v>22</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I82" s="25" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J82" s="26"/>
       <c r="K82" s="21"/>
@@ -5937,7 +5880,7 @@
       <c r="S82" s="21"/>
       <c r="T82" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="83" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="83">
       <c r="A83" s="20" t="n">
         <v>81</v>
       </c>
@@ -5945,7 +5888,7 @@
         <v>103</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D83" s="22" t="n">
         <v>79945</v>
@@ -5993,12 +5936,12 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="84" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="84">
       <c r="A84" s="20" t="n">
         <v>82</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>289</v>
+        <v>98</v>
       </c>
       <c r="C84" s="21" t="s">
         <v>99</v>
@@ -6043,15 +5986,15 @@
       <c r="S84" s="21"/>
       <c r="T84" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="85" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="85">
       <c r="A85" s="20" t="n">
         <v>83</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D85" s="22" t="n">
         <v>59580</v>
@@ -6069,7 +6012,7 @@
         <v>101</v>
       </c>
       <c r="I85" s="25" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="J85" s="26" t="s">
         <v>25</v>
@@ -6093,15 +6036,15 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="86" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="86">
       <c r="A86" s="20" t="n">
         <v>84</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D86" s="22" t="n">
         <v>49876.83</v>
@@ -6119,7 +6062,7 @@
         <v>86</v>
       </c>
       <c r="I86" s="25" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="J86" s="26"/>
       <c r="K86" s="21"/>
@@ -6135,7 +6078,7 @@
       <c r="S86" s="21"/>
       <c r="T86" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="87" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="87">
       <c r="A87" s="20" t="n">
         <v>85</v>
       </c>
@@ -6143,7 +6086,7 @@
         <v>84</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D87" s="22" t="n">
         <v>49950</v>
@@ -6161,7 +6104,7 @@
         <v>86</v>
       </c>
       <c r="I87" s="25" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J87" s="26"/>
       <c r="K87" s="21"/>
@@ -6177,15 +6120,15 @@
       <c r="S87" s="21"/>
       <c r="T87" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="88" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="88">
       <c r="A88" s="20" t="n">
         <v>86</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D88" s="22" t="n">
         <v>3550</v>
@@ -6197,13 +6140,13 @@
         <v>41182</v>
       </c>
       <c r="G88" s="30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H88" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I88" s="25" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="J88" s="26"/>
       <c r="K88" s="21"/>
@@ -6223,7 +6166,7 @@
       <c r="S88" s="21"/>
       <c r="T88" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="89" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="89">
       <c r="A89" s="20" t="n">
         <v>87</v>
       </c>
@@ -6265,15 +6208,15 @@
       <c r="S89" s="21"/>
       <c r="T89" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="90" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="90">
       <c r="A90" s="20" t="n">
         <v>88</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D90" s="22" t="n">
         <v>9918.95</v>
@@ -6291,7 +6234,7 @@
         <v>155</v>
       </c>
       <c r="I90" s="25" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="J90" s="26"/>
       <c r="K90" s="21"/>
@@ -6307,15 +6250,15 @@
       <c r="S90" s="21"/>
       <c r="T90" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="91" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="91">
       <c r="A91" s="20" t="n">
         <v>89</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D91" s="22" t="n">
         <v>6820</v>
@@ -6333,7 +6276,7 @@
         <v>155</v>
       </c>
       <c r="I91" s="25" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="J91" s="26"/>
       <c r="K91" s="21"/>
@@ -6349,15 +6292,15 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="92" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="92">
       <c r="A92" s="20" t="n">
         <v>90</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D92" s="22" t="n">
         <v>5160</v>
@@ -6369,13 +6312,13 @@
         <v>41305</v>
       </c>
       <c r="G92" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H92" s="24" t="s">
         <v>39</v>
       </c>
       <c r="I92" s="25" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="J92" s="26"/>
       <c r="K92" s="21"/>
@@ -6391,15 +6334,15 @@
       <c r="S92" s="21"/>
       <c r="T92" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="93" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="93">
       <c r="A93" s="20" t="n">
         <v>91</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D93" s="22" t="n">
         <v>10000</v>
@@ -6411,13 +6354,13 @@
         <v>41364</v>
       </c>
       <c r="G93" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H93" s="24" t="s">
         <v>39</v>
       </c>
       <c r="I93" s="25" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="J93" s="26" t="s">
         <v>25</v>
@@ -6433,15 +6376,15 @@
       <c r="S93" s="21"/>
       <c r="T93" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="94" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="94">
       <c r="A94" s="20" t="n">
         <v>92</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D94" s="22" t="n">
         <v>9740</v>
@@ -6453,13 +6396,13 @@
         <v>41237</v>
       </c>
       <c r="G94" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H94" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I94" s="25" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J94" s="26"/>
       <c r="K94" s="21"/>
@@ -6475,7 +6418,7 @@
       <c r="S94" s="21"/>
       <c r="T94" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="96.75" outlineLevel="0" r="95" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="96.75" outlineLevel="0" r="95">
       <c r="A95" s="20" t="n">
         <v>93</v>
       </c>
@@ -6483,7 +6426,7 @@
         <v>152</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D95" s="22" t="n">
         <v>8550</v>
@@ -6501,7 +6444,7 @@
         <v>155</v>
       </c>
       <c r="I95" s="25" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="J95" s="26"/>
       <c r="K95" s="21"/>
@@ -6517,15 +6460,15 @@
       <c r="S95" s="21"/>
       <c r="T95" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="96" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="96">
       <c r="A96" s="20" t="n">
         <v>94</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D96" s="22" t="n">
         <v>133600</v>
@@ -6543,7 +6486,7 @@
         <v>143</v>
       </c>
       <c r="I96" s="25" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="J96" s="26" t="s">
         <v>25</v>
@@ -6575,7 +6518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="97" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="97">
       <c r="A97" s="20" t="n">
         <v>95</v>
       </c>
@@ -6601,7 +6544,7 @@
         <v>150</v>
       </c>
       <c r="I97" s="25" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="J97" s="26"/>
       <c r="K97" s="21"/>
@@ -6617,15 +6560,15 @@
       <c r="S97" s="21"/>
       <c r="T97" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="98" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="98">
       <c r="A98" s="20" t="n">
         <v>96</v>
       </c>
       <c r="B98" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98" s="21" t="s">
         <v>173</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>174</v>
       </c>
       <c r="D98" s="22" t="n">
         <v>203538.83</v>
@@ -6643,7 +6586,7 @@
         <v>155</v>
       </c>
       <c r="I98" s="25" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="J98" s="26"/>
       <c r="K98" s="21"/>
@@ -6659,15 +6602,15 @@
       <c r="S98" s="21"/>
       <c r="T98" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="99" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="99">
       <c r="A99" s="20" t="n">
         <v>97</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D99" s="22" t="n">
         <v>3443</v>
@@ -6679,13 +6622,13 @@
         <v>41305</v>
       </c>
       <c r="G99" s="23" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H99" s="24" t="s">
         <v>54</v>
       </c>
       <c r="I99" s="25" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="J99" s="26"/>
       <c r="K99" s="21"/>
@@ -6701,15 +6644,15 @@
       <c r="S99" s="21"/>
       <c r="T99" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="100" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="100">
       <c r="A100" s="20" t="n">
         <v>98</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D100" s="22" t="n">
         <v>9996.14</v>
@@ -6727,7 +6670,7 @@
         <v>155</v>
       </c>
       <c r="I100" s="25" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J100" s="26"/>
       <c r="K100" s="21"/>
@@ -6743,15 +6686,15 @@
       </c>
       <c r="T100" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="101" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="101">
       <c r="A101" s="20" t="n">
         <v>99</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D101" s="22" t="n">
         <v>19960</v>
@@ -6769,7 +6712,7 @@
         <v>86</v>
       </c>
       <c r="I101" s="25" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="J101" s="26"/>
       <c r="K101" s="21"/>
@@ -6785,15 +6728,15 @@
       <c r="S101" s="21"/>
       <c r="T101" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="102" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="102">
       <c r="A102" s="20" t="n">
         <v>100</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D102" s="22" t="n">
         <v>18940</v>
@@ -6811,7 +6754,7 @@
         <v>23</v>
       </c>
       <c r="I102" s="25" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J102" s="26" t="s">
         <v>25</v>
@@ -6827,15 +6770,15 @@
       <c r="S102" s="21"/>
       <c r="T102" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="103" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="103">
       <c r="A103" s="20" t="n">
         <v>101</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D103" s="22" t="n">
         <v>19990</v>
@@ -6850,10 +6793,10 @@
         <v>22</v>
       </c>
       <c r="H103" s="24" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="I103" s="25" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="J103" s="26"/>
       <c r="K103" s="21"/>
@@ -6873,15 +6816,15 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="104" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="104">
       <c r="A104" s="20" t="n">
         <v>102</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D104" s="22" t="n">
         <v>18300</v>
@@ -6899,7 +6842,7 @@
         <v>90</v>
       </c>
       <c r="I104" s="25" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="J104" s="26"/>
       <c r="K104" s="21"/>
@@ -6915,15 +6858,15 @@
       <c r="S104" s="21"/>
       <c r="T104" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="105" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="105">
       <c r="A105" s="20" t="n">
         <v>103</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D105" s="22" t="n">
         <v>19700</v>
@@ -6941,7 +6884,7 @@
         <v>50</v>
       </c>
       <c r="I105" s="25" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="J105" s="26"/>
       <c r="K105" s="21"/>
@@ -6957,15 +6900,15 @@
       <c r="S105" s="21"/>
       <c r="T105" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="106" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="106">
       <c r="A106" s="20" t="n">
         <v>104</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D106" s="22" t="n">
         <v>19504</v>
@@ -6983,7 +6926,7 @@
         <v>50</v>
       </c>
       <c r="I106" s="25" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="J106" s="26"/>
       <c r="K106" s="21"/>
@@ -6999,15 +6942,15 @@
       <c r="S106" s="21"/>
       <c r="T106" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="107" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="107">
       <c r="A107" s="20" t="n">
         <v>105</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D107" s="22" t="n">
         <v>19990</v>
@@ -7022,10 +6965,10 @@
         <v>22</v>
       </c>
       <c r="H107" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I107" s="25" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="J107" s="26"/>
       <c r="K107" s="21"/>
@@ -7041,15 +6984,15 @@
       <c r="S107" s="21"/>
       <c r="T107" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="108" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="108">
       <c r="A108" s="20" t="n">
         <v>106</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D108" s="22" t="n">
         <v>17904</v>
@@ -7067,7 +7010,7 @@
         <v>86</v>
       </c>
       <c r="I108" s="25" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="J108" s="26"/>
       <c r="K108" s="21"/>
@@ -7083,15 +7026,15 @@
       <c r="S108" s="21"/>
       <c r="T108" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="109" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="109">
       <c r="A109" s="20" t="n">
         <v>107</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D109" s="22" t="n">
         <v>19900</v>
@@ -7109,7 +7052,7 @@
         <v>23</v>
       </c>
       <c r="I109" s="25" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="J109" s="26"/>
       <c r="K109" s="21"/>
@@ -7125,15 +7068,15 @@
       <c r="S109" s="21"/>
       <c r="T109" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="110" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="110">
       <c r="A110" s="20" t="n">
         <v>108</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D110" s="22" t="n">
         <v>20000</v>
@@ -7151,7 +7094,7 @@
         <v>101</v>
       </c>
       <c r="I110" s="25" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="J110" s="26" t="s">
         <v>25</v>
@@ -7185,15 +7128,15 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="111" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="111">
       <c r="A111" s="20" t="n">
         <v>109</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D111" s="22" t="n">
         <v>8910</v>
@@ -7211,7 +7154,7 @@
         <v>31</v>
       </c>
       <c r="I111" s="25" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="J111" s="26" t="s">
         <v>25</v>
@@ -7227,15 +7170,15 @@
       <c r="S111" s="21"/>
       <c r="T111" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="112" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="112">
       <c r="A112" s="20" t="n">
         <v>110</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D112" s="22" t="n">
         <v>5150</v>
@@ -7247,13 +7190,13 @@
         <v>41398</v>
       </c>
       <c r="G112" s="23" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H112" s="24" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="I112" s="25" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="J112" s="26"/>
       <c r="K112" s="21"/>
@@ -7269,15 +7212,15 @@
       <c r="S112" s="21"/>
       <c r="T112" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="113" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="113">
       <c r="A113" s="20" t="n">
         <v>111</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D113" s="22" t="n">
         <v>10000</v>
@@ -7289,13 +7232,13 @@
         <v>41517</v>
       </c>
       <c r="G113" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H113" s="24" t="s">
         <v>101</v>
       </c>
       <c r="I113" s="25" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="J113" s="26"/>
       <c r="K113" s="21"/>
@@ -7311,7 +7254,7 @@
       <c r="S113" s="21"/>
       <c r="T113" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="114" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="114">
       <c r="A114" s="20" t="n">
         <v>112</v>
       </c>
@@ -7319,7 +7262,7 @@
         <v>80</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D114" s="22" t="n">
         <v>49600</v>
@@ -7334,10 +7277,10 @@
         <v>82</v>
       </c>
       <c r="H114" s="24" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="I114" s="25" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J114" s="26"/>
       <c r="K114" s="21"/>
@@ -7353,15 +7296,15 @@
       <c r="S114" s="21"/>
       <c r="T114" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="115" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="115">
       <c r="A115" s="20" t="n">
         <v>113</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D115" s="22" t="n">
         <v>50000</v>
@@ -7379,7 +7322,7 @@
         <v>31</v>
       </c>
       <c r="I115" s="25" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J115" s="26"/>
       <c r="K115" s="21"/>
@@ -7397,15 +7340,15 @@
       <c r="S115" s="21"/>
       <c r="T115" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="116" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="116">
       <c r="A116" s="20" t="n">
         <v>114</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D116" s="22" t="n">
         <v>50000</v>
@@ -7423,7 +7366,7 @@
         <v>86</v>
       </c>
       <c r="I116" s="25" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="J116" s="26"/>
       <c r="K116" s="21"/>
@@ -7439,15 +7382,15 @@
       <c r="S116" s="21"/>
       <c r="T116" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="117" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="117">
       <c r="A117" s="20" t="n">
         <v>115</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D117" s="22" t="n">
         <v>9722.59</v>
@@ -7465,7 +7408,7 @@
         <v>155</v>
       </c>
       <c r="I117" s="25" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="J117" s="26"/>
       <c r="K117" s="21"/>
@@ -7481,15 +7424,15 @@
       <c r="S117" s="21"/>
       <c r="T117" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="118" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="118">
       <c r="A118" s="20" t="n">
         <v>116</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D118" s="22" t="n">
         <v>9975</v>
@@ -7507,7 +7450,7 @@
         <v>155</v>
       </c>
       <c r="I118" s="25" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="J118" s="26"/>
       <c r="K118" s="21"/>
@@ -7523,15 +7466,15 @@
       <c r="S118" s="21"/>
       <c r="T118" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="119" s="31">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="119" s="28">
       <c r="A119" s="20" t="n">
         <v>117</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D119" s="22" t="n">
         <v>7970</v>
@@ -7543,13 +7486,13 @@
         <v>41608</v>
       </c>
       <c r="G119" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H119" s="24" t="s">
         <v>155</v>
       </c>
       <c r="I119" s="25" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J119" s="26" t="s">
         <v>25</v>
@@ -7575,7 +7518,7 @@
       <c r="S119" s="21"/>
       <c r="T119" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="120" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="120">
       <c r="A120" s="20" t="n">
         <v>118</v>
       </c>
@@ -7583,7 +7526,7 @@
         <v>26</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D120" s="22" t="n">
         <v>5000</v>
@@ -7595,13 +7538,13 @@
         <v>41490</v>
       </c>
       <c r="G120" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H120" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I120" s="32" t="s">
-        <v>385</v>
+      <c r="I120" s="31" t="s">
+        <v>379</v>
       </c>
       <c r="J120" s="26"/>
       <c r="K120" s="21"/>
@@ -7617,15 +7560,15 @@
       <c r="S120" s="21"/>
       <c r="T120" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="121" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="121">
       <c r="A121" s="20" t="n">
         <v>119</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D121" s="22" t="n">
         <v>9980</v>
@@ -7637,13 +7580,13 @@
         <v>41463</v>
       </c>
       <c r="G121" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H121" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="I121" s="32" t="s">
-        <v>389</v>
+        <v>382</v>
+      </c>
+      <c r="I121" s="31" t="s">
+        <v>383</v>
       </c>
       <c r="J121" s="26"/>
       <c r="K121" s="21"/>
@@ -7659,15 +7602,15 @@
       <c r="S121" s="21"/>
       <c r="T121" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="122" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="122">
       <c r="A122" s="20" t="n">
         <v>120</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D122" s="22" t="n">
         <v>9963</v>
@@ -7679,13 +7622,13 @@
         <v>41698</v>
       </c>
       <c r="G122" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H122" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="I122" s="33" t="s">
-        <v>392</v>
+      <c r="I122" s="31" t="s">
+        <v>386</v>
       </c>
       <c r="J122" s="26"/>
       <c r="K122" s="21"/>
@@ -7701,15 +7644,15 @@
       <c r="S122" s="21"/>
       <c r="T122" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="123" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="123">
       <c r="A123" s="20" t="n">
         <v>121</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D123" s="22" t="n">
         <v>10000</v>
@@ -7721,13 +7664,13 @@
         <v>41562</v>
       </c>
       <c r="G123" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H123" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="I123" s="32" t="s">
-        <v>395</v>
+      <c r="I123" s="31" t="s">
+        <v>389</v>
       </c>
       <c r="J123" s="26"/>
       <c r="K123" s="21"/>
@@ -7743,15 +7686,15 @@
       <c r="S123" s="21"/>
       <c r="T123" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="124" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="124">
       <c r="A124" s="20" t="n">
         <v>122</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D124" s="22" t="n">
         <v>9910</v>
@@ -7763,13 +7706,13 @@
         <v>41562</v>
       </c>
       <c r="G124" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H124" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I124" s="32" t="s">
-        <v>398</v>
+      <c r="I124" s="31" t="s">
+        <v>392</v>
       </c>
       <c r="J124" s="26"/>
       <c r="K124" s="21"/>
@@ -7785,15 +7728,15 @@
       <c r="S124" s="21"/>
       <c r="T124" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="125" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="125">
       <c r="A125" s="20" t="n">
         <v>123</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D125" s="22" t="n">
         <v>7952.53</v>
@@ -7805,13 +7748,13 @@
         <v>41562</v>
       </c>
       <c r="G125" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H125" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="I125" s="32" t="s">
-        <v>402</v>
+        <v>395</v>
+      </c>
+      <c r="I125" s="31" t="s">
+        <v>396</v>
       </c>
       <c r="J125" s="26"/>
       <c r="K125" s="21"/>
@@ -7829,15 +7772,15 @@
       <c r="S125" s="21"/>
       <c r="T125" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="126" s="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="126">
       <c r="A126" s="20" t="n">
         <v>124</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D126" s="22" t="n">
         <v>8125</v>
@@ -7849,13 +7792,13 @@
         <v>41440</v>
       </c>
       <c r="G126" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H126" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I126" s="32" t="s">
-        <v>404</v>
+      <c r="I126" s="31" t="s">
+        <v>398</v>
       </c>
       <c r="J126" s="26"/>
       <c r="K126" s="21"/>
@@ -7871,15 +7814,15 @@
       <c r="S126" s="21"/>
       <c r="T126" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="127" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="127">
       <c r="A127" s="20" t="n">
         <v>125</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D127" s="22" t="n">
         <v>7423</v>
@@ -7891,13 +7834,13 @@
         <v>41608</v>
       </c>
       <c r="G127" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H127" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I127" s="33" t="s">
-        <v>407</v>
+      <c r="I127" s="31" t="s">
+        <v>401</v>
       </c>
       <c r="J127" s="26"/>
       <c r="K127" s="21"/>
@@ -7913,15 +7856,15 @@
       <c r="S127" s="21"/>
       <c r="T127" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="128" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="128">
       <c r="A128" s="20" t="n">
         <v>126</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D128" s="22" t="n">
         <v>6335</v>
@@ -7933,13 +7876,13 @@
         <v>41577</v>
       </c>
       <c r="G128" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H128" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="I128" s="33" t="s">
-        <v>409</v>
+        <v>43</v>
+      </c>
+      <c r="I128" s="31" t="s">
+        <v>403</v>
       </c>
       <c r="J128" s="26"/>
       <c r="K128" s="21"/>
@@ -7955,15 +7898,15 @@
       <c r="S128" s="21"/>
       <c r="T128" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="129" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="129">
       <c r="A129" s="20" t="n">
         <v>127</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D129" s="22" t="n">
         <v>10000</v>
@@ -7975,13 +7918,13 @@
         <v>41572</v>
       </c>
       <c r="G129" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H129" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I129" s="33" t="s">
-        <v>412</v>
+      <c r="I129" s="31" t="s">
+        <v>406</v>
       </c>
       <c r="J129" s="26"/>
       <c r="K129" s="21"/>
@@ -7997,15 +7940,15 @@
       <c r="S129" s="21"/>
       <c r="T129" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="130" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="130">
       <c r="A130" s="20" t="n">
         <v>128</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C130" s="21" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D130" s="22" t="n">
         <v>45965</v>
@@ -8020,10 +7963,10 @@
         <v>105</v>
       </c>
       <c r="H130" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="I130" s="33" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="I130" s="31" t="s">
+        <v>410</v>
       </c>
       <c r="J130" s="26" t="s">
         <v>25</v>
@@ -8059,15 +8002,15 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="131" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="131">
       <c r="A131" s="20" t="n">
         <v>129</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D131" s="22" t="n">
         <v>44920</v>
@@ -8084,8 +8027,8 @@
       <c r="H131" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I131" s="33" t="s">
-        <v>419</v>
+      <c r="I131" s="31" t="s">
+        <v>413</v>
       </c>
       <c r="J131" s="26"/>
       <c r="K131" s="21"/>
@@ -8101,15 +8044,15 @@
       <c r="S131" s="21"/>
       <c r="T131" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="132" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="132">
       <c r="A132" s="20" t="n">
         <v>130</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D132" s="22" t="n">
         <v>47232</v>
@@ -8124,10 +8067,10 @@
         <v>105</v>
       </c>
       <c r="H132" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="I132" s="33" t="s">
-        <v>423</v>
+        <v>416</v>
+      </c>
+      <c r="I132" s="31" t="s">
+        <v>417</v>
       </c>
       <c r="J132" s="26"/>
       <c r="K132" s="21" t="s">
@@ -8143,15 +8086,15 @@
       <c r="S132" s="21"/>
       <c r="T132" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="133" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="133">
       <c r="A133" s="20" t="n">
         <v>131</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D133" s="22" t="n">
         <v>45240</v>
@@ -8166,10 +8109,10 @@
         <v>105</v>
       </c>
       <c r="H133" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="I133" s="33" t="s">
-        <v>426</v>
+        <v>281</v>
+      </c>
+      <c r="I133" s="31" t="s">
+        <v>420</v>
       </c>
       <c r="J133" s="26"/>
       <c r="K133" s="21"/>
@@ -8185,7 +8128,7 @@
       <c r="S133" s="21"/>
       <c r="T133" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="134" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="134">
       <c r="A134" s="20" t="n">
         <v>132</v>
       </c>
@@ -8193,7 +8136,7 @@
         <v>107</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D134" s="22" t="n">
         <v>59971</v>
@@ -8210,8 +8153,8 @@
       <c r="H134" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I134" s="33" t="s">
-        <v>428</v>
+      <c r="I134" s="31" t="s">
+        <v>422</v>
       </c>
       <c r="J134" s="26"/>
       <c r="K134" s="21"/>
@@ -8227,18 +8170,18 @@
       <c r="S134" s="21"/>
       <c r="T134" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="135" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="135">
       <c r="A135" s="20" t="n">
         <v>133</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="D135" s="34" t="s">
-        <v>431</v>
+        <v>424</v>
+      </c>
+      <c r="D135" s="32" t="n">
+        <v>9860</v>
       </c>
       <c r="E135" s="23" t="n">
         <v>41414</v>
@@ -8252,8 +8195,8 @@
       <c r="H135" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="I135" s="33" t="s">
-        <v>432</v>
+      <c r="I135" s="31" t="s">
+        <v>425</v>
       </c>
       <c r="J135" s="26"/>
       <c r="K135" s="21"/>
@@ -8269,15 +8212,15 @@
       <c r="S135" s="21"/>
       <c r="T135" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="136" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="136">
       <c r="A136" s="20" t="n">
         <v>134</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D136" s="22" t="n">
         <v>9384</v>
@@ -8289,13 +8232,13 @@
         <v>41608</v>
       </c>
       <c r="G136" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H136" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="I136" s="33" t="s">
-        <v>435</v>
+      <c r="I136" s="31" t="s">
+        <v>428</v>
       </c>
       <c r="J136" s="26" t="s">
         <v>25</v>
@@ -8327,15 +8270,15 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="137" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="137">
       <c r="A137" s="20" t="n">
         <v>135</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D137" s="22" t="n">
         <v>28939</v>
@@ -8352,13 +8295,13 @@
       <c r="H137" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I137" s="33" t="s">
-        <v>437</v>
+      <c r="I137" s="31" t="s">
+        <v>430</v>
       </c>
       <c r="J137" s="26"/>
       <c r="K137" s="21"/>
       <c r="L137" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M137" s="21"/>
       <c r="N137" s="21"/>
@@ -8369,7 +8312,7 @@
       <c r="S137" s="21"/>
       <c r="T137" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="138" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="138">
       <c r="A138" s="20" t="n">
         <v>136</v>
       </c>
@@ -8377,7 +8320,7 @@
         <v>80</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D138" s="22" t="n">
         <v>9600</v>
@@ -8389,13 +8332,13 @@
         <v>41639</v>
       </c>
       <c r="G138" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H138" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I138" s="33" t="s">
-        <v>440</v>
+      <c r="I138" s="31" t="s">
+        <v>433</v>
       </c>
       <c r="J138" s="26"/>
       <c r="K138" s="21"/>
@@ -8411,15 +8354,15 @@
       <c r="S138" s="21"/>
       <c r="T138" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="139" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="139">
       <c r="A139" s="20" t="n">
         <v>137</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D139" s="22" t="n">
         <v>49410</v>
@@ -8436,8 +8379,8 @@
       <c r="H139" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I139" s="33" t="s">
-        <v>443</v>
+      <c r="I139" s="31" t="s">
+        <v>436</v>
       </c>
       <c r="J139" s="26"/>
       <c r="K139" s="21"/>
@@ -8453,15 +8396,15 @@
       <c r="S139" s="21"/>
       <c r="T139" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="140" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="140">
       <c r="A140" s="20" t="n">
         <v>138</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D140" s="22" t="n">
         <v>187363.81</v>
@@ -8478,8 +8421,8 @@
       <c r="H140" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="I140" s="33" t="s">
-        <v>321</v>
+      <c r="I140" s="31" t="s">
+        <v>315</v>
       </c>
       <c r="J140" s="26"/>
       <c r="K140" s="21"/>
@@ -8495,15 +8438,15 @@
       <c r="S140" s="21"/>
       <c r="T140" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="141" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="141">
       <c r="A141" s="20" t="n">
         <v>139</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D141" s="22" t="n">
         <v>29938</v>
@@ -8518,17 +8461,17 @@
         <v>22</v>
       </c>
       <c r="H141" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="I141" s="33" t="s">
-        <v>446</v>
+        <v>54</v>
+      </c>
+      <c r="I141" s="31" t="s">
+        <v>439</v>
       </c>
       <c r="J141" s="26"/>
       <c r="K141" s="21"/>
       <c r="L141" s="21"/>
       <c r="M141" s="21"/>
       <c r="N141" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="O141" s="21"/>
       <c r="P141" s="21"/>
@@ -8537,7 +8480,7 @@
       <c r="S141" s="21"/>
       <c r="T141" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="142" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="142">
       <c r="A142" s="20" t="n">
         <v>140</v>
       </c>
@@ -8545,7 +8488,7 @@
         <v>129</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D142" s="22" t="n">
         <v>20870</v>
@@ -8562,11 +8505,11 @@
       <c r="H142" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="I142" s="33" t="s">
-        <v>448</v>
+      <c r="I142" s="31" t="s">
+        <v>441</v>
       </c>
       <c r="J142" s="26" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="K142" s="21"/>
       <c r="L142" s="21"/>
@@ -8579,15 +8522,15 @@
       <c r="S142" s="21"/>
       <c r="T142" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="143" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="143">
       <c r="A143" s="20" t="n">
         <v>141</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>449</v>
+        <v>110</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D143" s="22" t="n">
         <v>56464</v>
@@ -8604,8 +8547,8 @@
       <c r="H143" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I143" s="33" t="s">
-        <v>451</v>
+      <c r="I143" s="31" t="s">
+        <v>443</v>
       </c>
       <c r="J143" s="26"/>
       <c r="K143" s="21"/>
@@ -8619,15 +8562,15 @@
       <c r="S143" s="21"/>
       <c r="T143" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="144" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="144">
       <c r="A144" s="20" t="n">
         <v>142</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D144" s="22" t="n">
         <v>148537.5</v>
@@ -8644,15 +8587,15 @@
       <c r="H144" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="I144" s="35" t="s">
-        <v>452</v>
+      <c r="I144" s="33" t="s">
+        <v>444</v>
       </c>
       <c r="J144" s="26"/>
       <c r="K144" s="21"/>
       <c r="L144" s="21"/>
       <c r="M144" s="21"/>
       <c r="N144" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="O144" s="21"/>
       <c r="P144" s="21"/>
@@ -8661,15 +8604,15 @@
       <c r="S144" s="21"/>
       <c r="T144" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="145" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="145">
       <c r="A145" s="20" t="n">
         <v>143</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D145" s="22" t="n">
         <v>9299</v>
@@ -8681,18 +8624,18 @@
         <v>41670</v>
       </c>
       <c r="G145" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H145" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="I145" s="35" t="s">
-        <v>455</v>
+      <c r="I145" s="33" t="s">
+        <v>447</v>
       </c>
       <c r="J145" s="26"/>
       <c r="K145" s="21"/>
       <c r="L145" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M145" s="21"/>
       <c r="N145" s="21"/>
@@ -8703,15 +8646,15 @@
       <c r="S145" s="21"/>
       <c r="T145" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="146" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="146">
       <c r="A146" s="20" t="n">
         <v>144</v>
       </c>
       <c r="B146" s="21" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C146" s="21" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D146" s="22" t="n">
         <v>6996</v>
@@ -8723,20 +8666,20 @@
         <v>41608</v>
       </c>
       <c r="G146" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H146" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I146" s="35" t="s">
-        <v>458</v>
+      <c r="I146" s="33" t="s">
+        <v>450</v>
       </c>
       <c r="J146" s="26"/>
       <c r="K146" s="21"/>
       <c r="L146" s="21"/>
       <c r="M146" s="21"/>
       <c r="N146" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="O146" s="21"/>
       <c r="P146" s="21"/>
@@ -8745,15 +8688,15 @@
       <c r="S146" s="21"/>
       <c r="T146" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="147" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="147">
       <c r="A147" s="20" t="n">
         <v>145</v>
       </c>
       <c r="B147" s="21" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D147" s="22" t="n">
         <v>9342</v>
@@ -8765,13 +8708,13 @@
         <v>41670</v>
       </c>
       <c r="G147" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H147" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="I147" s="35" t="s">
-        <v>461</v>
+        <v>43</v>
+      </c>
+      <c r="I147" s="33" t="s">
+        <v>453</v>
       </c>
       <c r="J147" s="26"/>
       <c r="K147" s="21"/>
@@ -8787,15 +8730,15 @@
       <c r="S147" s="21"/>
       <c r="T147" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="148" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="148">
       <c r="A148" s="20" t="n">
         <v>146</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="D148" s="22" t="n">
         <v>10000</v>
@@ -8807,13 +8750,13 @@
         <v>41759</v>
       </c>
       <c r="G148" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H148" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="I148" s="36" t="s">
-        <v>464</v>
+      <c r="I148" s="34" t="s">
+        <v>456</v>
       </c>
       <c r="J148" s="26"/>
       <c r="K148" s="21"/>
@@ -8829,15 +8772,15 @@
       <c r="S148" s="21"/>
       <c r="T148" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="149" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="149">
       <c r="A149" s="20" t="n">
         <v>147</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D149" s="22" t="n">
         <v>8290</v>
@@ -8849,13 +8792,13 @@
         <v>41677</v>
       </c>
       <c r="G149" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H149" s="24" t="s">
-        <v>467</v>
-      </c>
-      <c r="I149" s="35" t="s">
-        <v>468</v>
+        <v>459</v>
+      </c>
+      <c r="I149" s="33" t="s">
+        <v>460</v>
       </c>
       <c r="J149" s="26"/>
       <c r="K149" s="21"/>
@@ -8871,15 +8814,15 @@
       <c r="S149" s="21"/>
       <c r="T149" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="150" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="150">
       <c r="A150" s="20" t="n">
         <v>149</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D150" s="22" t="n">
         <v>5821</v>
@@ -8891,13 +8834,13 @@
         <v>41608</v>
       </c>
       <c r="G150" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H150" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="I150" s="35" t="s">
-        <v>471</v>
+      <c r="I150" s="33" t="s">
+        <v>463</v>
       </c>
       <c r="J150" s="26"/>
       <c r="K150" s="21"/>
@@ -8913,15 +8856,15 @@
       <c r="S150" s="21"/>
       <c r="T150" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="151" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="151">
       <c r="A151" s="20" t="n">
         <v>150</v>
       </c>
       <c r="B151" s="21" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D151" s="22" t="n">
         <v>9997.5</v>
@@ -8933,13 +8876,13 @@
         <v>41744</v>
       </c>
       <c r="G151" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H151" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="I151" s="36" t="s">
-        <v>474</v>
+      <c r="I151" s="34" t="s">
+        <v>466</v>
       </c>
       <c r="J151" s="26"/>
       <c r="K151" s="21"/>
@@ -8955,15 +8898,15 @@
       <c r="S151" s="21"/>
       <c r="T151" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="152" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="152">
       <c r="A152" s="20" t="n">
         <v>151</v>
       </c>
       <c r="B152" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D152" s="22" t="n">
         <v>5310</v>
@@ -8975,13 +8918,13 @@
         <v>41790</v>
       </c>
       <c r="G152" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H152" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I152" s="35" t="s">
-        <v>476</v>
+      <c r="I152" s="33" t="s">
+        <v>468</v>
       </c>
       <c r="J152" s="26"/>
       <c r="K152" s="21"/>
@@ -8997,15 +8940,15 @@
       <c r="S152" s="21"/>
       <c r="T152" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="153" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="153">
       <c r="A153" s="20" t="n">
         <v>152</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D153" s="22" t="n">
         <v>9913</v>
@@ -9017,13 +8960,13 @@
         <v>41532</v>
       </c>
       <c r="G153" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H153" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="I153" s="35" t="s">
-        <v>479</v>
+      <c r="I153" s="33" t="s">
+        <v>471</v>
       </c>
       <c r="J153" s="26" t="s">
         <v>25</v>
@@ -9049,15 +8992,15 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="154" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="154">
       <c r="A154" s="20" t="n">
         <v>153</v>
       </c>
       <c r="B154" s="21" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D154" s="22" t="n">
         <v>9740</v>
@@ -9069,13 +9012,13 @@
         <v>41237</v>
       </c>
       <c r="G154" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H154" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="I154" s="35" t="s">
-        <v>482</v>
+        <v>240</v>
+      </c>
+      <c r="I154" s="33" t="s">
+        <v>474</v>
       </c>
       <c r="J154" s="26"/>
       <c r="K154" s="21"/>
@@ -9091,15 +9034,15 @@
       <c r="S154" s="21"/>
       <c r="T154" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="155" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="155">
       <c r="A155" s="20" t="n">
         <v>154</v>
       </c>
       <c r="B155" s="21" t="s">
-        <v>483</v>
+        <v>245</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="D155" s="22" t="n">
         <v>43052.1</v>
@@ -9116,8 +9059,8 @@
       <c r="H155" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I155" s="35" t="s">
-        <v>485</v>
+      <c r="I155" s="33" t="s">
+        <v>476</v>
       </c>
       <c r="J155" s="26"/>
       <c r="K155" s="21"/>
@@ -9133,15 +9076,15 @@
       <c r="S155" s="21"/>
       <c r="T155" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="156" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="156">
       <c r="A156" s="20" t="n">
         <v>155</v>
       </c>
       <c r="B156" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="D156" s="22" t="n">
         <v>59807.6</v>
@@ -9158,8 +9101,8 @@
       <c r="H156" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I156" s="35" t="s">
-        <v>487</v>
+      <c r="I156" s="33" t="s">
+        <v>478</v>
       </c>
       <c r="J156" s="26"/>
       <c r="K156" s="21"/>
@@ -9175,15 +9118,15 @@
       <c r="S156" s="21"/>
       <c r="T156" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="157" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="157">
       <c r="A157" s="20" t="n">
         <v>156</v>
       </c>
       <c r="B157" s="21" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D157" s="22" t="n">
         <v>71288</v>
@@ -9200,8 +9143,8 @@
       <c r="H157" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="I157" s="35" t="s">
-        <v>489</v>
+      <c r="I157" s="33" t="s">
+        <v>480</v>
       </c>
       <c r="J157" s="26"/>
       <c r="K157" s="21"/>
@@ -9217,15 +9160,15 @@
       <c r="S157" s="21"/>
       <c r="T157" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="158" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="158">
       <c r="A158" s="20" t="n">
         <v>157</v>
       </c>
       <c r="B158" s="21" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D158" s="22" t="n">
         <v>9570</v>
@@ -9240,10 +9183,10 @@
         <v>82</v>
       </c>
       <c r="H158" s="24" t="s">
-        <v>467</v>
-      </c>
-      <c r="I158" s="35" t="s">
-        <v>491</v>
+        <v>459</v>
+      </c>
+      <c r="I158" s="33" t="s">
+        <v>482</v>
       </c>
       <c r="J158" s="26"/>
       <c r="K158" s="21"/>
@@ -9259,15 +9202,15 @@
       <c r="S158" s="21"/>
       <c r="T158" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="159" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="159">
       <c r="A159" s="20" t="n">
         <v>158</v>
       </c>
       <c r="B159" s="21" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D159" s="22" t="n">
         <v>15000</v>
@@ -9279,16 +9222,16 @@
         <v>41759</v>
       </c>
       <c r="G159" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H159" s="24" t="s">
-        <v>493</v>
-      </c>
-      <c r="I159" s="35" t="s">
-        <v>494</v>
+        <v>484</v>
+      </c>
+      <c r="I159" s="33" t="s">
+        <v>485</v>
       </c>
       <c r="J159" s="26" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="K159" s="21"/>
       <c r="L159" s="21"/>
@@ -9301,15 +9244,15 @@
       <c r="S159" s="21"/>
       <c r="T159" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="160" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="160">
       <c r="A160" s="20" t="n">
         <v>159</v>
       </c>
       <c r="B160" s="21" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D160" s="22" t="n">
         <v>14457.7</v>
@@ -9321,13 +9264,13 @@
         <v>41774</v>
       </c>
       <c r="G160" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H160" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="I160" s="35" t="s">
-        <v>497</v>
+        <v>357</v>
+      </c>
+      <c r="I160" s="33" t="s">
+        <v>488</v>
       </c>
       <c r="J160" s="26"/>
       <c r="K160" s="21"/>
@@ -9343,15 +9286,15 @@
       <c r="S160" s="21"/>
       <c r="T160" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="161" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="161">
       <c r="A161" s="20" t="n">
         <v>160</v>
       </c>
       <c r="B161" s="21" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D161" s="22" t="n">
         <v>9980</v>
@@ -9363,19 +9306,19 @@
         <v>41698</v>
       </c>
       <c r="G161" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H161" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="I161" s="35" t="s">
-        <v>499</v>
+        <v>382</v>
+      </c>
+      <c r="I161" s="33" t="s">
+        <v>490</v>
       </c>
       <c r="J161" s="26"/>
       <c r="K161" s="21"/>
       <c r="L161" s="21"/>
       <c r="M161" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="N161" s="21"/>
       <c r="O161" s="21"/>
@@ -9385,15 +9328,15 @@
       <c r="S161" s="21"/>
       <c r="T161" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="162" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="162">
       <c r="A162" s="20" t="n">
         <v>161</v>
       </c>
       <c r="B162" s="21" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C162" s="21" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="D162" s="22" t="n">
         <v>14965</v>
@@ -9405,13 +9348,13 @@
         <v>41820</v>
       </c>
       <c r="G162" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H162" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="I162" s="35" t="s">
-        <v>502</v>
+        <v>395</v>
+      </c>
+      <c r="I162" s="33" t="s">
+        <v>493</v>
       </c>
       <c r="J162" s="26"/>
       <c r="K162" s="21"/>
@@ -9427,15 +9370,15 @@
       <c r="S162" s="21"/>
       <c r="T162" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="163" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="163">
       <c r="A163" s="20" t="n">
         <v>162</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="D163" s="22" t="n">
         <v>14626.5</v>
@@ -9447,16 +9390,16 @@
         <v>41820</v>
       </c>
       <c r="G163" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H163" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I163" s="35" t="s">
-        <v>504</v>
+      <c r="I163" s="33" t="s">
+        <v>495</v>
       </c>
       <c r="J163" s="26" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="K163" s="21"/>
       <c r="L163" s="21"/>
@@ -9469,15 +9412,15 @@
       <c r="S163" s="21"/>
       <c r="T163" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="164" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="164">
       <c r="A164" s="20" t="n">
         <v>163</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D164" s="22" t="n">
         <v>9850</v>
@@ -9494,8 +9437,8 @@
       <c r="H164" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="I164" s="35" t="s">
-        <v>506</v>
+      <c r="I164" s="33" t="s">
+        <v>497</v>
       </c>
       <c r="J164" s="26"/>
       <c r="K164" s="21"/>
@@ -9511,15 +9454,15 @@
       <c r="S164" s="21"/>
       <c r="T164" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="165" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="165">
       <c r="A165" s="20" t="n">
         <v>164</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C165" s="21" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D165" s="22" t="n">
         <v>9990</v>
@@ -9536,8 +9479,8 @@
       <c r="H165" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="I165" s="35" t="s">
-        <v>509</v>
+      <c r="I165" s="33" t="s">
+        <v>500</v>
       </c>
       <c r="J165" s="26"/>
       <c r="K165" s="21"/>
@@ -9553,15 +9496,15 @@
       <c r="S165" s="21"/>
       <c r="T165" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="166" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="166">
       <c r="A166" s="20" t="n">
         <v>165</v>
       </c>
       <c r="B166" s="21" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D166" s="22" t="n">
         <v>9732</v>
@@ -9578,8 +9521,8 @@
       <c r="H166" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="I166" s="35" t="s">
-        <v>512</v>
+      <c r="I166" s="33" t="s">
+        <v>503</v>
       </c>
       <c r="J166" s="26"/>
       <c r="K166" s="21"/>
@@ -9595,12 +9538,12 @@
       <c r="S166" s="21"/>
       <c r="T166" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="167" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="167">
       <c r="A167" s="20" t="n">
         <v>166</v>
       </c>
       <c r="B167" s="21" t="s">
-        <v>513</v>
+        <v>147</v>
       </c>
       <c r="C167" s="21" t="s">
         <v>148</v>
@@ -9620,8 +9563,8 @@
       <c r="H167" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="I167" s="35" t="s">
-        <v>514</v>
+      <c r="I167" s="33" t="s">
+        <v>504</v>
       </c>
       <c r="J167" s="26"/>
       <c r="K167" s="21"/>
@@ -9637,15 +9580,15 @@
       <c r="S167" s="21"/>
       <c r="T167" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="168" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="168">
       <c r="A168" s="20" t="n">
         <v>167</v>
       </c>
       <c r="B168" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="D168" s="22" t="n">
         <v>47429</v>
@@ -9660,10 +9603,10 @@
         <v>82</v>
       </c>
       <c r="H168" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="I168" s="35" t="s">
-        <v>516</v>
+        <v>183</v>
+      </c>
+      <c r="I168" s="33" t="s">
+        <v>506</v>
       </c>
       <c r="J168" s="26"/>
       <c r="K168" s="21"/>
@@ -9679,15 +9622,15 @@
       <c r="S168" s="21"/>
       <c r="T168" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="169" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="169">
       <c r="A169" s="20" t="n">
         <v>168</v>
       </c>
       <c r="B169" s="21" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="D169" s="22" t="n">
         <v>47640</v>
@@ -9704,8 +9647,8 @@
       <c r="H169" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="I169" s="35" t="s">
-        <v>519</v>
+      <c r="I169" s="33" t="s">
+        <v>509</v>
       </c>
       <c r="J169" s="26"/>
       <c r="K169" s="21"/>
@@ -9721,7 +9664,7 @@
       <c r="S169" s="21"/>
       <c r="T169" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="170" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="170">
       <c r="A170" s="20" t="n">
         <v>169</v>
       </c>
@@ -9729,7 +9672,7 @@
         <v>80</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="D170" s="22" t="n">
         <v>49650</v>
@@ -9746,8 +9689,8 @@
       <c r="H170" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I170" s="35" t="s">
-        <v>521</v>
+      <c r="I170" s="33" t="s">
+        <v>511</v>
       </c>
       <c r="J170" s="26"/>
       <c r="K170" s="21"/>
@@ -9763,15 +9706,15 @@
       <c r="S170" s="21"/>
       <c r="T170" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="171" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="171">
       <c r="A171" s="20" t="n">
         <v>170</v>
       </c>
       <c r="B171" s="21" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="D171" s="22" t="n">
         <v>44475</v>
@@ -9788,8 +9731,8 @@
       <c r="H171" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="I171" s="35" t="s">
-        <v>523</v>
+      <c r="I171" s="33" t="s">
+        <v>513</v>
       </c>
       <c r="J171" s="26"/>
       <c r="K171" s="21"/>
@@ -9805,7 +9748,7 @@
       <c r="S171" s="21"/>
       <c r="T171" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="172" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="172">
       <c r="A172" s="20" t="n">
         <v>171</v>
       </c>
@@ -9813,7 +9756,7 @@
         <v>26</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="D172" s="22" t="n">
         <v>29284</v>
@@ -9830,13 +9773,13 @@
       <c r="H172" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I172" s="35" t="s">
-        <v>525</v>
+      <c r="I172" s="33" t="s">
+        <v>515</v>
       </c>
       <c r="J172" s="26"/>
       <c r="K172" s="21"/>
       <c r="L172" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M172" s="21"/>
       <c r="N172" s="21"/>
@@ -9847,15 +9790,15 @@
       <c r="S172" s="21"/>
       <c r="T172" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="173" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="173">
       <c r="A173" s="20" t="n">
         <v>172</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D173" s="22" t="n">
         <v>21610</v>
@@ -9872,15 +9815,15 @@
       <c r="H173" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="I173" s="35" t="s">
-        <v>528</v>
+      <c r="I173" s="33" t="s">
+        <v>518</v>
       </c>
       <c r="J173" s="26" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="K173" s="21"/>
       <c r="L173" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M173" s="21"/>
       <c r="N173" s="21"/>
@@ -9892,18 +9835,18 @@
       <c r="R173" s="21"/>
       <c r="S173" s="21"/>
       <c r="T173" s="27" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="174" s="31">
+        <v>431</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="174">
       <c r="A174" s="20" t="n">
         <v>173</v>
       </c>
       <c r="B174" s="21" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D174" s="22" t="n">
         <v>32953</v>
@@ -9918,16 +9861,16 @@
         <v>105</v>
       </c>
       <c r="H174" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="I174" s="35" t="s">
-        <v>530</v>
+        <v>281</v>
+      </c>
+      <c r="I174" s="33" t="s">
+        <v>520</v>
       </c>
       <c r="J174" s="26"/>
       <c r="K174" s="21"/>
       <c r="L174" s="21"/>
       <c r="M174" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="N174" s="21"/>
       <c r="O174" s="21"/>
@@ -9937,15 +9880,15 @@
       <c r="S174" s="21"/>
       <c r="T174" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="175" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="175">
       <c r="A175" s="20" t="n">
         <v>174</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D175" s="22" t="n">
         <v>29695</v>
@@ -9960,22 +9903,22 @@
         <v>22</v>
       </c>
       <c r="H175" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="I175" s="35" t="s">
-        <v>534</v>
+        <v>523</v>
+      </c>
+      <c r="I175" s="33" t="s">
+        <v>524</v>
       </c>
       <c r="J175" s="26" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="K175" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="L175" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M175" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="N175" s="21"/>
       <c r="O175" s="21" t="s">
@@ -9984,24 +9927,24 @@
       <c r="P175" s="21"/>
       <c r="Q175" s="21"/>
       <c r="R175" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="S175" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="T175" s="27" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="176" s="31">
+        <v>431</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="176">
       <c r="A176" s="20" t="n">
         <v>175</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D176" s="22" t="n">
         <v>15000</v>
@@ -10013,19 +9956,19 @@
         <v>41820</v>
       </c>
       <c r="G176" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H176" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="I176" s="35" t="s">
-        <v>537</v>
+      <c r="I176" s="33" t="s">
+        <v>527</v>
       </c>
       <c r="J176" s="26"/>
       <c r="K176" s="21"/>
       <c r="L176" s="21"/>
       <c r="M176" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="N176" s="21"/>
       <c r="O176" s="21"/>
@@ -10035,15 +9978,15 @@
       <c r="S176" s="21"/>
       <c r="T176" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="177" s="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="177">
       <c r="A177" s="20" t="n">
         <v>176</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D177" s="22" t="n">
         <v>12200</v>
@@ -10055,13 +9998,13 @@
         <v>41820</v>
       </c>
       <c r="G177" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H177" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I177" s="35" t="s">
-        <v>540</v>
+      <c r="I177" s="33" t="s">
+        <v>530</v>
       </c>
       <c r="J177" s="26"/>
       <c r="K177" s="21"/>
@@ -10082,10 +10025,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="D178" s="22" t="n">
         <v>29967</v>
@@ -10100,10 +10043,10 @@
         <v>22</v>
       </c>
       <c r="H178" s="24" t="s">
-        <v>207</v>
+        <v>43</v>
       </c>
       <c r="I178" s="25" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="J178" s="26"/>
       <c r="K178" s="21"/>
@@ -10124,10 +10067,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="D179" s="22" t="n">
         <v>28766.5</v>
@@ -10145,12 +10088,12 @@
         <v>64</v>
       </c>
       <c r="I179" s="25" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="J179" s="26"/>
       <c r="K179" s="21"/>
       <c r="L179" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M179" s="21"/>
       <c r="N179" s="21"/>
@@ -10166,10 +10109,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="21" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="D180" s="22" t="n">
         <v>14213.5</v>
@@ -10181,20 +10124,20 @@
         <v>41820</v>
       </c>
       <c r="G180" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H180" s="24" t="s">
         <v>155</v>
       </c>
       <c r="I180" s="25" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="J180" s="26"/>
       <c r="K180" s="21"/>
       <c r="L180" s="21"/>
       <c r="M180" s="21"/>
       <c r="N180" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="O180" s="21"/>
       <c r="P180" s="21"/>
@@ -10208,10 +10151,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C181" s="21" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D181" s="22" t="n">
         <v>21651</v>
@@ -10229,12 +10172,12 @@
         <v>23</v>
       </c>
       <c r="I181" s="25" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="J181" s="26"/>
       <c r="K181" s="21"/>
       <c r="L181" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M181" s="21"/>
       <c r="N181" s="21"/>
@@ -10250,10 +10193,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="D182" s="22" t="n">
         <v>8920</v>
@@ -10271,7 +10214,7 @@
         <v>23</v>
       </c>
       <c r="I182" s="25" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="J182" s="26"/>
       <c r="K182" s="21"/>
@@ -10292,10 +10235,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="D183" s="22" t="n">
         <v>25690</v>
@@ -10310,10 +10253,10 @@
         <v>22</v>
       </c>
       <c r="H183" s="24" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I183" s="25" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="J183" s="26"/>
       <c r="K183" s="21"/>
@@ -10334,10 +10277,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="21" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="D184" s="22" t="n">
         <v>28222.5</v>
@@ -10355,12 +10298,12 @@
         <v>64</v>
       </c>
       <c r="I184" s="25" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="J184" s="26"/>
       <c r="K184" s="21"/>
       <c r="L184" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M184" s="21"/>
       <c r="N184" s="21"/>
@@ -10376,10 +10319,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="21" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C185" s="21" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="D185" s="22" t="n">
         <v>27547.5</v>
@@ -10394,19 +10337,19 @@
         <v>22</v>
       </c>
       <c r="H185" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I185" s="25" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="J185" s="26" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="K185" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="L185" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M185" s="21"/>
       <c r="N185" s="21"/>
@@ -10415,10 +10358,10 @@
       <c r="Q185" s="21"/>
       <c r="R185" s="21"/>
       <c r="S185" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="T185" s="27" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="77.25" outlineLevel="0" r="186" s="28">
@@ -10426,10 +10369,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="21" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D186" s="22" t="n">
         <v>8720</v>
@@ -10447,7 +10390,7 @@
         <v>155</v>
       </c>
       <c r="I186" s="25" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="J186" s="26"/>
       <c r="K186" s="21"/>
@@ -10468,10 +10411,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="D187" s="22" t="n">
         <v>10000</v>
@@ -10489,7 +10432,7 @@
         <v>155</v>
       </c>
       <c r="I187" s="25" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="J187" s="26"/>
       <c r="K187" s="21"/>
@@ -10513,7 +10456,7 @@
         <v>107</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="D188" s="22" t="n">
         <v>59970</v>
@@ -10531,7 +10474,7 @@
         <v>23</v>
       </c>
       <c r="I188" s="25" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="J188" s="26"/>
       <c r="K188" s="21"/>
@@ -10552,10 +10495,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D189" s="22" t="n">
         <v>13897.5</v>
@@ -10567,13 +10510,13 @@
         <v>41851</v>
       </c>
       <c r="G189" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H189" s="24" t="s">
         <v>90</v>
       </c>
       <c r="I189" s="25" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J189" s="26"/>
       <c r="K189" s="21"/>
@@ -10589,24 +10532,22 @@
       <c r="S189" s="21"/>
       <c r="T189" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="190">
-      <c r="D190" s="37" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="190">
+      <c r="D190" s="35" t="n">
         <f aca="false">SUM(D3:D189)</f>
-        <v>5341455.59</v>
+        <v>5351315.59</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T190"/>
   <mergeCells count="1">
     <mergeCell ref="J1:T1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.2" right="0.2" top="0.250694444444444" bottom="0.250694444444444" header="0.3" footer="0.3"/>
+  <pageMargins left="0.2" right="0.2" top="0.252083333333333" bottom="0.252083333333333" header="0.3" footer="0.3"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;CUSAID/Georgia/DG Grantee Database</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>